--- a/仕様書/モルモットホイーラン_仕様書_ステージセレクト.xlsx
+++ b/仕様書/モルモットホイーラン_仕様書_ステージセレクト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\松田 優志\日本ゲーム大賞 アマチュア部門\JGA_2020_PROJECT\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37E73E7-62FE-4718-8492-65320D9410DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB20F93-BB15-46AA-8403-6DA00D32866C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F6F2A0B8-DF02-473D-B3F4-90E1A5A03874}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F6F2A0B8-DF02-473D-B3F4-90E1A5A03874}"/>
   </bookViews>
   <sheets>
     <sheet name="トップページ" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="130">
   <si>
     <t>仕様書：更新履歴</t>
     <rPh sb="0" eb="3">
@@ -552,14 +552,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>プレイヤー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>player.fbx</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ステージの名前や難易度を教えてくれる</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -795,10 +787,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ハムスター</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ステージセレクト画面のイメージ。
 選択中のステージロゴのみサイズが少し拡大する。</t>
     <rPh sb="8" eb="10">
@@ -959,6 +947,24 @@
     <rPh sb="11" eb="14">
       <t>シヨウショ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モルモット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3Dの項目「ハムスター」を「モルモット」に変更</t>
+    <rPh sb="3" eb="5">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>morumotto.fbx</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5421,8 +5427,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2057401" y="2252980"/>
-          <a:ext cx="2222500" cy="1484630"/>
+          <a:off x="2072641" y="2299970"/>
+          <a:ext cx="2240280" cy="1515110"/>
           <a:chOff x="7690391" y="10924873"/>
           <a:chExt cx="3773035" cy="2560214"/>
         </a:xfrm>
@@ -5631,8 +5637,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1527810" y="6145531"/>
-          <a:ext cx="3507740" cy="1865629"/>
+          <a:off x="1536700" y="6277611"/>
+          <a:ext cx="3538220" cy="1911349"/>
           <a:chOff x="7419341" y="4344158"/>
           <a:chExt cx="4361952" cy="2553635"/>
         </a:xfrm>
@@ -6314,8 +6320,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9029700" y="6101080"/>
-          <a:ext cx="3492500" cy="1887219"/>
+          <a:off x="9098280" y="6231890"/>
+          <a:ext cx="3520440" cy="1929129"/>
           <a:chOff x="7419341" y="4344158"/>
           <a:chExt cx="4361952" cy="2553635"/>
         </a:xfrm>
@@ -7420,8 +7426,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6819900" y="3970722"/>
-          <a:ext cx="5106669" cy="3253038"/>
+          <a:off x="6873240" y="4055812"/>
+          <a:ext cx="5152389" cy="3325428"/>
           <a:chOff x="7419341" y="4340348"/>
           <a:chExt cx="4361952" cy="2553635"/>
         </a:xfrm>
@@ -10248,8 +10254,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6871970" y="10146030"/>
-          <a:ext cx="5107939" cy="3253038"/>
+          <a:off x="6927850" y="10369550"/>
+          <a:ext cx="5147309" cy="3324158"/>
           <a:chOff x="7419341" y="4340348"/>
           <a:chExt cx="4361952" cy="2553635"/>
         </a:xfrm>
@@ -13335,8 +13341,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1950720" y="19503390"/>
-          <a:ext cx="4672329" cy="2697480"/>
+          <a:off x="1967230" y="19936460"/>
+          <a:ext cx="4707889" cy="2757170"/>
           <a:chOff x="7419341" y="4340348"/>
           <a:chExt cx="4361952" cy="2553635"/>
         </a:xfrm>
@@ -14018,8 +14024,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1656081" y="3169920"/>
-          <a:ext cx="4672329" cy="2697480"/>
+          <a:off x="1667511" y="3239770"/>
+          <a:ext cx="4707889" cy="2757170"/>
           <a:chOff x="7419341" y="4340348"/>
           <a:chExt cx="4361952" cy="2553635"/>
         </a:xfrm>
@@ -18194,8 +18200,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1731010" y="8973820"/>
-          <a:ext cx="4505960" cy="2650490"/>
+          <a:off x="1742440" y="9175750"/>
+          <a:ext cx="4545330" cy="2701290"/>
           <a:chOff x="7419341" y="4344158"/>
           <a:chExt cx="4361952" cy="2553635"/>
         </a:xfrm>
@@ -18877,8 +18883,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2002329" y="13910310"/>
-          <a:ext cx="4484831" cy="2650490"/>
+          <a:off x="2021379" y="14216380"/>
+          <a:ext cx="4514041" cy="2707640"/>
           <a:chOff x="7438366" y="4344158"/>
           <a:chExt cx="4343883" cy="2553635"/>
         </a:xfrm>
@@ -20047,7 +20053,7 @@
   <sheetData>
     <row r="1" spans="1:73" s="8" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:73" s="8" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -20149,7 +20155,7 @@
     </row>
     <row r="8" spans="1:73" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A8" s="19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
@@ -20299,7 +20305,7 @@
     </row>
     <row r="10" spans="1:73" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
@@ -20457,7 +20463,7 @@
     </row>
     <row r="12" spans="1:73" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A12" s="19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B12" s="20"/>
       <c r="C12" s="20"/>
@@ -20615,7 +20621,7 @@
     </row>
     <row r="14" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="20"/>
@@ -20992,7 +20998,7 @@
       <c r="AO18" s="7"/>
       <c r="AP18" s="7"/>
       <c r="AQ18" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AR18" s="7"/>
       <c r="AS18" s="7"/>
@@ -21074,7 +21080,7 @@
       <c r="AO19" s="7"/>
       <c r="AP19" s="7"/>
       <c r="AQ19" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AR19" s="7"/>
       <c r="AS19" s="7"/>
@@ -21156,7 +21162,7 @@
       <c r="AO20" s="7"/>
       <c r="AP20" s="7"/>
       <c r="AQ20" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AR20" s="7"/>
       <c r="AS20" s="7"/>
@@ -21238,7 +21244,7 @@
       <c r="AO21" s="7"/>
       <c r="AP21" s="7"/>
       <c r="AQ21" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AR21" s="7"/>
       <c r="AS21" s="7"/>
@@ -21320,7 +21326,7 @@
       <c r="AO22" s="7"/>
       <c r="AP22" s="7"/>
       <c r="AQ22" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AR22" s="7"/>
       <c r="AS22" s="7"/>
@@ -21402,7 +21408,7 @@
       <c r="AO23" s="7"/>
       <c r="AP23" s="7"/>
       <c r="AQ23" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="AR23" s="7"/>
       <c r="AS23" s="7"/>
@@ -21484,7 +21490,7 @@
       <c r="AO24" s="7"/>
       <c r="AP24" s="7"/>
       <c r="AQ24" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="AR24" s="7"/>
       <c r="AS24" s="7"/>
@@ -21566,7 +21572,7 @@
       <c r="AO25" s="7"/>
       <c r="AP25" s="7"/>
       <c r="AQ25" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="AR25" s="7"/>
       <c r="AS25" s="7"/>
@@ -21648,7 +21654,7 @@
       <c r="AO26" s="7"/>
       <c r="AP26" s="7"/>
       <c r="AQ26" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AR26" s="7"/>
       <c r="AS26" s="7"/>
@@ -21730,7 +21736,7 @@
       <c r="AO27" s="7"/>
       <c r="AP27" s="7"/>
       <c r="AQ27" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="AR27" s="7"/>
       <c r="AS27" s="7"/>
@@ -21812,7 +21818,7 @@
       <c r="AO28" s="7"/>
       <c r="AP28" s="7"/>
       <c r="AQ28" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AR28" s="7"/>
       <c r="AS28" s="7"/>
@@ -21877,7 +21883,7 @@
       <c r="Z29" s="7"/>
       <c r="AA29" s="7"/>
       <c r="AB29" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AC29" s="7"/>
       <c r="AD29" s="7"/>
@@ -21894,7 +21900,7 @@
       <c r="AO29" s="7"/>
       <c r="AP29" s="7"/>
       <c r="AQ29" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AR29" s="7"/>
       <c r="AS29" s="7"/>
@@ -21935,7 +21941,9 @@
       <c r="E30" s="24"/>
       <c r="F30" s="24"/>
       <c r="G30" s="25"/>
-      <c r="I30" s="4"/>
+      <c r="I30" s="37">
+        <v>44298</v>
+      </c>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
@@ -21946,7 +21954,9 @@
       <c r="Q30" s="5"/>
       <c r="R30" s="5"/>
       <c r="S30" s="6"/>
-      <c r="T30" s="7"/>
+      <c r="T30" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="U30" s="7"/>
       <c r="V30" s="7"/>
       <c r="W30" s="7"/>
@@ -21954,7 +21964,9 @@
       <c r="Y30" s="7"/>
       <c r="Z30" s="7"/>
       <c r="AA30" s="7"/>
-      <c r="AB30" s="7"/>
+      <c r="AB30" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="AC30" s="7"/>
       <c r="AD30" s="7"/>
       <c r="AE30" s="7"/>
@@ -21969,7 +21981,9 @@
       <c r="AN30" s="7"/>
       <c r="AO30" s="7"/>
       <c r="AP30" s="7"/>
-      <c r="AQ30" s="7"/>
+      <c r="AQ30" s="7" t="s">
+        <v>128</v>
+      </c>
       <c r="AR30" s="7"/>
       <c r="AS30" s="7"/>
       <c r="AT30" s="7"/>
@@ -23013,7 +23027,7 @@
   <sheetData>
     <row r="1" spans="1:82" s="8" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:82" s="8" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -23124,7 +23138,7 @@
     </row>
     <row r="8" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
@@ -23292,7 +23306,7 @@
     </row>
     <row r="10" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
@@ -23386,7 +23400,7 @@
     </row>
     <row r="12" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B12" s="20"/>
       <c r="C12" s="20"/>
@@ -23554,7 +23568,7 @@
     </row>
     <row r="14" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="20"/>
@@ -31099,7 +31113,7 @@
   <sheetData>
     <row r="1" spans="1:82" s="8" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:82" s="8" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -31210,7 +31224,7 @@
     </row>
     <row r="8" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
@@ -31378,7 +31392,7 @@
     </row>
     <row r="10" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
@@ -31474,7 +31488,7 @@
     </row>
     <row r="12" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B12" s="20"/>
       <c r="C12" s="20"/>
@@ -31642,7 +31656,7 @@
     </row>
     <row r="14" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A14" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="20"/>
@@ -31789,7 +31803,7 @@
       <c r="AV15" s="62"/>
       <c r="AW15" s="62"/>
       <c r="AX15" s="62" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AY15" s="62"/>
       <c r="AZ15" s="62"/>
@@ -31882,7 +31896,7 @@
       <c r="AV16" s="66"/>
       <c r="AW16" s="66"/>
       <c r="AX16" s="66" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AY16" s="66"/>
       <c r="AZ16" s="66"/>
@@ -31975,7 +31989,7 @@
       <c r="AV17" s="66"/>
       <c r="AW17" s="66"/>
       <c r="AX17" s="66" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AY17" s="66"/>
       <c r="AZ17" s="66"/>
@@ -31997,7 +32011,7 @@
       <c r="BN17" s="66"/>
       <c r="BO17" s="66"/>
       <c r="BP17" s="66" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="BQ17" s="66"/>
       <c r="BR17" s="66"/>
@@ -32068,7 +32082,7 @@
       <c r="AV18" s="66"/>
       <c r="AW18" s="66"/>
       <c r="AX18" s="66" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AY18" s="66"/>
       <c r="AZ18" s="66"/>
@@ -32131,7 +32145,7 @@
       <c r="T19" s="66"/>
       <c r="U19" s="66"/>
       <c r="V19" s="66" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="W19" s="66"/>
       <c r="X19" s="66"/>
@@ -32161,7 +32175,7 @@
       <c r="AV19" s="66"/>
       <c r="AW19" s="66"/>
       <c r="AX19" s="66" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="AY19" s="66"/>
       <c r="AZ19" s="66"/>
@@ -32254,7 +32268,7 @@
       <c r="AV20" s="66"/>
       <c r="AW20" s="66"/>
       <c r="AX20" s="66" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AY20" s="66"/>
       <c r="AZ20" s="66"/>
@@ -32302,7 +32316,7 @@
       <c r="F21" s="60"/>
       <c r="G21" s="61"/>
       <c r="I21" s="66" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J21" s="66"/>
       <c r="K21" s="66"/>
@@ -32317,7 +32331,7 @@
       <c r="T21" s="66"/>
       <c r="U21" s="66"/>
       <c r="V21" s="66" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="W21" s="66"/>
       <c r="X21" s="66"/>
@@ -32347,7 +32361,7 @@
       <c r="AV21" s="66"/>
       <c r="AW21" s="66"/>
       <c r="AX21" s="66" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AY21" s="66"/>
       <c r="AZ21" s="66"/>
@@ -32369,7 +32383,7 @@
       <c r="BN21" s="66"/>
       <c r="BO21" s="66"/>
       <c r="BP21" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="BQ21" s="66"/>
       <c r="BR21" s="66"/>
@@ -33096,7 +33110,7 @@
       <c r="F33" s="60"/>
       <c r="G33" s="61"/>
       <c r="I33" s="66" t="s">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="J33" s="66"/>
       <c r="K33" s="66"/>
@@ -33111,7 +33125,7 @@
       <c r="T33" s="66"/>
       <c r="U33" s="66"/>
       <c r="V33" s="66" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="W33" s="66"/>
       <c r="X33" s="66"/>
@@ -33161,7 +33175,7 @@
       <c r="BN33" s="66"/>
       <c r="BO33" s="66"/>
       <c r="BP33" s="66" t="s">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="BQ33" s="66"/>
       <c r="BR33" s="66"/>
@@ -36258,7 +36272,7 @@
   <sheetData>
     <row r="1" spans="1:82" s="8" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:82" s="8" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -36369,7 +36383,7 @@
     </row>
     <row r="8" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
@@ -36537,7 +36551,7 @@
     </row>
     <row r="10" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
@@ -36555,7 +36569,7 @@
       <c r="F11" s="17"/>
       <c r="G11" s="18"/>
       <c r="I11" s="97" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J11" s="98"/>
       <c r="K11" s="98"/>
@@ -36633,7 +36647,7 @@
     </row>
     <row r="12" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B12" s="20"/>
       <c r="C12" s="20"/>
@@ -36801,7 +36815,7 @@
     </row>
     <row r="14" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="20"/>
@@ -36810,7 +36824,7 @@
       <c r="F14" s="20"/>
       <c r="G14" s="21"/>
       <c r="I14" s="106" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J14" s="107"/>
       <c r="K14" s="107"/>
@@ -36840,7 +36854,7 @@
       <c r="AI14" s="107"/>
       <c r="AJ14" s="108"/>
       <c r="AK14" s="112" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AL14" s="113"/>
       <c r="AM14" s="113"/>
@@ -36980,7 +36994,7 @@
       <c r="F16" s="57"/>
       <c r="G16" s="58"/>
       <c r="I16" s="87" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J16" s="88"/>
       <c r="K16" s="88"/>
@@ -36989,7 +37003,7 @@
       <c r="N16" s="88"/>
       <c r="O16" s="88"/>
       <c r="P16" s="87" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Q16" s="88"/>
       <c r="R16" s="88"/>
@@ -37012,7 +37026,7 @@
       <c r="AI16" s="88"/>
       <c r="AJ16" s="89"/>
       <c r="AK16" s="118" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="AL16" s="119"/>
       <c r="AM16" s="119"/>
@@ -37163,7 +37177,7 @@
       <c r="N18" s="94"/>
       <c r="O18" s="95"/>
       <c r="P18" s="63" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q18" s="64"/>
       <c r="R18" s="64"/>
@@ -37248,7 +37262,7 @@
       <c r="N19" s="94"/>
       <c r="O19" s="95"/>
       <c r="P19" s="63" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="Q19" s="64"/>
       <c r="R19" s="64"/>
@@ -37271,7 +37285,7 @@
       <c r="AI19" s="64"/>
       <c r="AJ19" s="77"/>
       <c r="AK19" s="127" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AL19" s="128"/>
       <c r="AM19" s="128"/>
@@ -37335,7 +37349,7 @@
       <c r="N20" s="94"/>
       <c r="O20" s="95"/>
       <c r="P20" s="63" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Q20" s="64"/>
       <c r="R20" s="64"/>
@@ -37420,7 +37434,7 @@
       <c r="N21" s="94"/>
       <c r="O21" s="95"/>
       <c r="P21" s="63" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="Q21" s="64"/>
       <c r="R21" s="64"/>
@@ -37830,7 +37844,7 @@
       <c r="F26" s="57"/>
       <c r="G26" s="58"/>
       <c r="I26" s="78" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J26" s="79"/>
       <c r="K26" s="79"/>
@@ -37839,7 +37853,7 @@
       <c r="N26" s="79"/>
       <c r="O26" s="93"/>
       <c r="P26" s="63" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="Q26" s="64"/>
       <c r="R26" s="64"/>
@@ -39367,7 +39381,7 @@
       <c r="F47" s="60"/>
       <c r="G47" s="61"/>
       <c r="I47" s="97" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J47" s="98"/>
       <c r="K47" s="98"/>
@@ -39618,7 +39632,7 @@
       <c r="F50" s="57"/>
       <c r="G50" s="58"/>
       <c r="I50" s="106" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J50" s="107"/>
       <c r="K50" s="107"/>
@@ -39648,7 +39662,7 @@
       <c r="AI50" s="107"/>
       <c r="AJ50" s="108"/>
       <c r="AK50" s="112" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AL50" s="113"/>
       <c r="AM50" s="113"/>
@@ -39781,7 +39795,7 @@
     </row>
     <row r="52" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="I52" s="87" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J52" s="88"/>
       <c r="K52" s="88"/>
@@ -39790,7 +39804,7 @@
       <c r="N52" s="88"/>
       <c r="O52" s="88"/>
       <c r="P52" s="87" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Q52" s="88"/>
       <c r="R52" s="88"/>
@@ -39813,7 +39827,7 @@
       <c r="AI52" s="88"/>
       <c r="AJ52" s="89"/>
       <c r="AK52" s="118" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AL52" s="119"/>
       <c r="AM52" s="119"/>
@@ -39863,7 +39877,7 @@
     </row>
     <row r="53" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="I53" s="78" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J53" s="79"/>
       <c r="K53" s="79"/>
@@ -39950,7 +39964,7 @@
       <c r="N54" s="94"/>
       <c r="O54" s="95"/>
       <c r="P54" s="63" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q54" s="64"/>
       <c r="R54" s="64"/>
@@ -40028,7 +40042,7 @@
       <c r="N55" s="94"/>
       <c r="O55" s="95"/>
       <c r="P55" s="63" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="Q55" s="64"/>
       <c r="R55" s="64"/>
@@ -40051,7 +40065,7 @@
       <c r="AI55" s="64"/>
       <c r="AJ55" s="77"/>
       <c r="AK55" s="127" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AL55" s="128"/>
       <c r="AM55" s="128"/>
@@ -40108,7 +40122,7 @@
       <c r="N56" s="94"/>
       <c r="O56" s="95"/>
       <c r="P56" s="63" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Q56" s="64"/>
       <c r="R56" s="64"/>
@@ -40186,7 +40200,7 @@
       <c r="N57" s="94"/>
       <c r="O57" s="95"/>
       <c r="P57" s="63" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="Q57" s="64"/>
       <c r="R57" s="64"/>
@@ -40264,7 +40278,7 @@
       <c r="N58" s="94"/>
       <c r="O58" s="95"/>
       <c r="P58" s="63" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="Q58" s="64"/>
       <c r="R58" s="64"/>
@@ -40639,7 +40653,7 @@
     </row>
     <row r="63" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="I63" s="78" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J63" s="79"/>
       <c r="K63" s="79"/>
@@ -40648,7 +40662,7 @@
       <c r="N63" s="79"/>
       <c r="O63" s="93"/>
       <c r="P63" s="63" t="s">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="Q63" s="64"/>
       <c r="R63" s="64"/>
@@ -41420,7 +41434,7 @@
       <c r="N73" s="79"/>
       <c r="O73" s="93"/>
       <c r="P73" s="63" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Q73" s="64"/>
       <c r="R73" s="64"/>
@@ -42083,7 +42097,7 @@
   <sheetData>
     <row r="1" spans="1:82" s="8" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:82" s="8" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -42116,7 +42130,7 @@
       <c r="F7" s="17"/>
       <c r="G7" s="18"/>
       <c r="I7" s="38" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J7" s="39"/>
       <c r="K7" s="39"/>
@@ -42194,7 +42208,7 @@
     </row>
     <row r="8" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
@@ -42362,7 +42376,7 @@
     </row>
     <row r="10" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
@@ -42456,7 +42470,7 @@
     </row>
     <row r="12" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B12" s="20"/>
       <c r="C12" s="20"/>
@@ -42624,7 +42638,7 @@
     </row>
     <row r="14" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="20"/>
@@ -44984,7 +44998,7 @@
       <c r="F45" s="60"/>
       <c r="G45" s="61"/>
       <c r="I45" s="38" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J45" s="39"/>
       <c r="K45" s="39"/>
@@ -49211,7 +49225,7 @@
     <row r="103" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="104" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="I104" s="38" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J104" s="39"/>
       <c r="K104" s="39"/>
@@ -51571,7 +51585,7 @@
     <row r="138" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="139" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="I139" s="38" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J139" s="39"/>
       <c r="K139" s="39"/>

--- a/仕様書/モルモットホイーラン_仕様書_ステージセレクト.xlsx
+++ b/仕様書/モルモットホイーラン_仕様書_ステージセレクト.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\松田 優志\日本ゲーム大賞 アマチュア部門\JGA_2020_PROJECT\仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ゲーム制作サークル\2021年度\日本ゲーム大賞アマチュア部門\JGA_2021_バージョン管理\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB20F93-BB15-46AA-8403-6DA00D32866C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61CCF72-7715-486E-8785-2319EC17B41C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F6F2A0B8-DF02-473D-B3F4-90E1A5A03874}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F6F2A0B8-DF02-473D-B3F4-90E1A5A03874}"/>
   </bookViews>
   <sheets>
     <sheet name="トップページ" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="131">
   <si>
     <t>仕様書：更新履歴</t>
     <rPh sb="0" eb="3">
@@ -965,6 +965,19 @@
   </si>
   <si>
     <t>morumotto.fbx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル画像を差し替え</t>
+    <rPh sb="4" eb="6">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2383,16 +2396,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>60959</xdr:rowOff>
+      <xdr:rowOff>60958</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>55</xdr:col>
       <xdr:colOff>111917</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>60006</xdr:rowOff>
+      <xdr:rowOff>60005</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2407,8 +2420,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="6944915" y="5277564"/>
-          <a:ext cx="349567" cy="3586637"/>
+          <a:off x="7101125" y="5433773"/>
+          <a:ext cx="349567" cy="3274217"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -2443,16 +2456,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>15239</xdr:rowOff>
+      <xdr:rowOff>53339</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>69532</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>164781</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>27621</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2467,7 +2480,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="4693920" y="4922519"/>
+          <a:off x="5128260" y="4960619"/>
           <a:ext cx="336232" cy="1201102"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
@@ -2503,16 +2516,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>7621</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>99061</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2527,7 +2540,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4328161" y="5554980"/>
+          <a:off x="4488181" y="5440680"/>
           <a:ext cx="1691640" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2582,16 +2595,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2606,7 +2619,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4305300" y="4213860"/>
+          <a:off x="4655820" y="4206240"/>
           <a:ext cx="1470660" cy="670560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2678,16 +2691,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2702,11 +2715,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="4099560" y="3230880"/>
-          <a:ext cx="1089660" cy="647700"/>
+          <a:off x="4724400" y="3093720"/>
+          <a:ext cx="1089660" cy="906780"/>
         </a:xfrm>
         <a:prstGeom prst="bentUpArrow">
-          <a:avLst/>
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 14510"/>
+            <a:gd name="adj2" fmla="val 21497"/>
+            <a:gd name="adj3" fmla="val 25000"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln/>
       </xdr:spPr>
@@ -2739,16 +2756,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>99062</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
+      <xdr:col>48</xdr:col>
       <xdr:colOff>40959</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>25718</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2763,7 +2780,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6019802" y="4792980"/>
+          <a:off x="6499862" y="4663440"/>
           <a:ext cx="1222057" cy="665798"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2821,16 +2838,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>47149</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>92869</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>99062</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2847,7 +2864,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4861560" y="5129689"/>
+          <a:off x="5341620" y="5000149"/>
           <a:ext cx="1158242" cy="272891"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -5403,216 +5420,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>152401</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>24130</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>152401</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="76" name="グループ化 75">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{647E5351-63D3-469A-AA99-F80F15288B20}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="2072641" y="2299970"/>
-          <a:ext cx="2240280" cy="1515110"/>
-          <a:chOff x="7690391" y="10924873"/>
-          <a:chExt cx="3773035" cy="2560214"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="77" name="図 76">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A077189F-D364-481D-930F-D801788AD1C4}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7690391" y="10924873"/>
-            <a:ext cx="3773035" cy="2560214"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="78" name="図 77">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D53D7A30-A5D3-4326-BD48-8C9074F754A0}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8836995" y="11175874"/>
-            <a:ext cx="1462202" cy="313737"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="79" name="図 78">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1ABED4BE-0214-4754-AEC9-CF99402C4B60}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9142682" y="12294021"/>
-            <a:ext cx="748337" cy="178406"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="80" name="図 79">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37338AFE-6C9A-4E37-BC2F-8A3C631FD4DF}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8944805" y="12642649"/>
-            <a:ext cx="1232853" cy="174946"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="81" name="図 80">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83B090F5-78B8-4757-8490-19EC2831D339}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9154086" y="12972267"/>
-            <a:ext cx="749607" cy="180014"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>99060</xdr:colOff>
       <xdr:row>35</xdr:row>
@@ -5637,8 +5444,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1536700" y="6277611"/>
-          <a:ext cx="3538220" cy="1911349"/>
+          <a:off x="1539240" y="6278881"/>
+          <a:ext cx="3535680" cy="1907539"/>
           <a:chOff x="7419341" y="4344158"/>
           <a:chExt cx="4361952" cy="2553635"/>
         </a:xfrm>
@@ -5657,7 +5464,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5754,7 +5561,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6105,7 +5912,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6140,7 +5947,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6320,7 +6127,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9098280" y="6231890"/>
+          <a:off x="9100820" y="6234430"/>
           <a:ext cx="3520440" cy="1929129"/>
           <a:chOff x="7419341" y="4344158"/>
           <a:chExt cx="4361952" cy="2553635"/>
@@ -6340,7 +6147,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6437,7 +6244,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6788,7 +6595,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6823,7 +6630,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6975,6 +6782,56 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>30481</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>127845</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="図 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB4D6DDC-20EB-4D7E-9962-4A7B493C1906}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2072640" y="2308861"/>
+          <a:ext cx="2695785" cy="1516379"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7426,8 +7283,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6873240" y="4055812"/>
-          <a:ext cx="5152389" cy="3325428"/>
+          <a:off x="6873240" y="4058352"/>
+          <a:ext cx="5148579" cy="3325428"/>
           <a:chOff x="7419341" y="4340348"/>
           <a:chExt cx="4361952" cy="2553635"/>
         </a:xfrm>
@@ -10254,8 +10111,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6927850" y="10369550"/>
-          <a:ext cx="5147309" cy="3324158"/>
+          <a:off x="6926580" y="10370820"/>
+          <a:ext cx="5148579" cy="3325428"/>
           <a:chOff x="7419341" y="4340348"/>
           <a:chExt cx="4361952" cy="2553635"/>
         </a:xfrm>
@@ -13341,8 +13198,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1967230" y="19936460"/>
-          <a:ext cx="4707889" cy="2757170"/>
+          <a:off x="1965960" y="19933920"/>
+          <a:ext cx="4709159" cy="2758440"/>
           <a:chOff x="7419341" y="4340348"/>
           <a:chExt cx="4361952" cy="2553635"/>
         </a:xfrm>
@@ -14024,8 +13881,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1667511" y="3239770"/>
-          <a:ext cx="4707889" cy="2757170"/>
+          <a:off x="1668781" y="3238500"/>
+          <a:ext cx="4709159" cy="2758440"/>
           <a:chOff x="7419341" y="4340348"/>
           <a:chExt cx="4361952" cy="2553635"/>
         </a:xfrm>
@@ -18200,8 +18057,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1742440" y="9175750"/>
-          <a:ext cx="4545330" cy="2701290"/>
+          <a:off x="1743710" y="9171940"/>
+          <a:ext cx="4542790" cy="2707640"/>
           <a:chOff x="7419341" y="4344158"/>
           <a:chExt cx="4361952" cy="2553635"/>
         </a:xfrm>
@@ -18883,8 +18740,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2021379" y="14216380"/>
-          <a:ext cx="4514041" cy="2707640"/>
+          <a:off x="2017569" y="14218920"/>
+          <a:ext cx="4520391" cy="2707640"/>
           <a:chOff x="7438366" y="4344158"/>
           <a:chExt cx="4343883" cy="2553635"/>
         </a:xfrm>
@@ -20046,27 +19903,27 @@
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.08203125" defaultRowHeight="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="2.08203125" style="1"/>
+    <col min="1" max="16384" width="2.09765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" s="8" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:73" s="8" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="8" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:73" s="8" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="3" spans="1:73" s="8" customFormat="1" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="4" spans="1:73" s="10" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:73" s="8" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:73" s="8" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="4" spans="1:73" s="10" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:73" s="12" customFormat="1" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:73" s="12" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="11"/>
     </row>
-    <row r="6" spans="1:73" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:73" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="13" t="s">
         <v>7</v>
       </c>
@@ -20077,7 +19934,7 @@
       <c r="F6" s="14"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:73" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:73" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="16"/>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
@@ -20153,7 +20010,7 @@
       <c r="BT7" s="29"/>
       <c r="BU7" s="29"/>
     </row>
-    <row r="8" spans="1:73" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:73" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="19" t="s">
         <v>103</v>
       </c>
@@ -20229,7 +20086,7 @@
       <c r="BT8" s="29"/>
       <c r="BU8" s="29"/>
     </row>
-    <row r="9" spans="1:73" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:73" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="16"/>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
@@ -20303,7 +20160,7 @@
       <c r="BT9" s="29"/>
       <c r="BU9" s="29"/>
     </row>
-    <row r="10" spans="1:73" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:73" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="19" t="s">
         <v>104</v>
       </c>
@@ -20387,7 +20244,7 @@
       <c r="BT10" s="22"/>
       <c r="BU10" s="22"/>
     </row>
-    <row r="11" spans="1:73" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:73" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="16"/>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
@@ -20461,7 +20318,7 @@
       <c r="BT11" s="22"/>
       <c r="BU11" s="22"/>
     </row>
-    <row r="12" spans="1:73" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:73" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="19" t="s">
         <v>105</v>
       </c>
@@ -20537,7 +20394,7 @@
       <c r="BT12" s="22"/>
       <c r="BU12" s="22"/>
     </row>
-    <row r="13" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="16"/>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
@@ -20619,7 +20476,7 @@
       <c r="BT13" s="33"/>
       <c r="BU13" s="33"/>
     </row>
-    <row r="14" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="19" t="s">
         <v>106</v>
       </c>
@@ -20703,7 +20560,7 @@
       <c r="BT14" s="7"/>
       <c r="BU14" s="7"/>
     </row>
-    <row r="15" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="16"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
@@ -20785,7 +20642,7 @@
       <c r="BT15" s="7"/>
       <c r="BU15" s="7"/>
     </row>
-    <row r="16" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="23"/>
       <c r="B16" s="24"/>
       <c r="C16" s="24"/>
@@ -20867,7 +20724,7 @@
       <c r="BT16" s="7"/>
       <c r="BU16" s="7"/>
     </row>
-    <row r="17" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="26"/>
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
@@ -20949,7 +20806,7 @@
       <c r="BT17" s="7"/>
       <c r="BU17" s="7"/>
     </row>
-    <row r="18" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="23"/>
       <c r="B18" s="24"/>
       <c r="C18" s="24"/>
@@ -21031,7 +20888,7 @@
       <c r="BT18" s="7"/>
       <c r="BU18" s="7"/>
     </row>
-    <row r="19" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="26"/>
       <c r="B19" s="27"/>
       <c r="C19" s="27"/>
@@ -21113,7 +20970,7 @@
       <c r="BT19" s="7"/>
       <c r="BU19" s="7"/>
     </row>
-    <row r="20" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="23"/>
       <c r="B20" s="24"/>
       <c r="C20" s="24"/>
@@ -21195,7 +21052,7 @@
       <c r="BT20" s="7"/>
       <c r="BU20" s="7"/>
     </row>
-    <row r="21" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="26"/>
       <c r="B21" s="27"/>
       <c r="C21" s="27"/>
@@ -21277,7 +21134,7 @@
       <c r="BT21" s="7"/>
       <c r="BU21" s="7"/>
     </row>
-    <row r="22" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="23"/>
       <c r="B22" s="24"/>
       <c r="C22" s="24"/>
@@ -21359,7 +21216,7 @@
       <c r="BT22" s="7"/>
       <c r="BU22" s="7"/>
     </row>
-    <row r="23" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="26"/>
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
@@ -21441,7 +21298,7 @@
       <c r="BT23" s="7"/>
       <c r="BU23" s="7"/>
     </row>
-    <row r="24" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="23"/>
       <c r="B24" s="24"/>
       <c r="C24" s="24"/>
@@ -21523,7 +21380,7 @@
       <c r="BT24" s="7"/>
       <c r="BU24" s="7"/>
     </row>
-    <row r="25" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="26"/>
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
@@ -21605,7 +21462,7 @@
       <c r="BT25" s="7"/>
       <c r="BU25" s="7"/>
     </row>
-    <row r="26" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="23"/>
       <c r="B26" s="24"/>
       <c r="C26" s="24"/>
@@ -21687,7 +21544,7 @@
       <c r="BT26" s="7"/>
       <c r="BU26" s="7"/>
     </row>
-    <row r="27" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="26"/>
       <c r="B27" s="27"/>
       <c r="C27" s="27"/>
@@ -21769,7 +21626,7 @@
       <c r="BT27" s="7"/>
       <c r="BU27" s="7"/>
     </row>
-    <row r="28" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="23"/>
       <c r="B28" s="24"/>
       <c r="C28" s="24"/>
@@ -21851,7 +21708,7 @@
       <c r="BT28" s="7"/>
       <c r="BU28" s="7"/>
     </row>
-    <row r="29" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="26"/>
       <c r="B29" s="27"/>
       <c r="C29" s="27"/>
@@ -21933,7 +21790,7 @@
       <c r="BT29" s="7"/>
       <c r="BU29" s="7"/>
     </row>
-    <row r="30" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="23"/>
       <c r="B30" s="24"/>
       <c r="C30" s="24"/>
@@ -22015,7 +21872,7 @@
       <c r="BT30" s="7"/>
       <c r="BU30" s="7"/>
     </row>
-    <row r="31" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="26"/>
       <c r="B31" s="27"/>
       <c r="C31" s="27"/>
@@ -22023,7 +21880,9 @@
       <c r="E31" s="27"/>
       <c r="F31" s="27"/>
       <c r="G31" s="28"/>
-      <c r="I31" s="4"/>
+      <c r="I31" s="37">
+        <v>44321</v>
+      </c>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
@@ -22034,7 +21893,9 @@
       <c r="Q31" s="5"/>
       <c r="R31" s="5"/>
       <c r="S31" s="6"/>
-      <c r="T31" s="7"/>
+      <c r="T31" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="U31" s="7"/>
       <c r="V31" s="7"/>
       <c r="W31" s="7"/>
@@ -22042,7 +21903,9 @@
       <c r="Y31" s="7"/>
       <c r="Z31" s="7"/>
       <c r="AA31" s="7"/>
-      <c r="AB31" s="7"/>
+      <c r="AB31" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="AC31" s="7"/>
       <c r="AD31" s="7"/>
       <c r="AE31" s="7"/>
@@ -22057,7 +21920,9 @@
       <c r="AN31" s="7"/>
       <c r="AO31" s="7"/>
       <c r="AP31" s="7"/>
-      <c r="AQ31" s="7"/>
+      <c r="AQ31" s="7" t="s">
+        <v>130</v>
+      </c>
       <c r="AR31" s="7"/>
       <c r="AS31" s="7"/>
       <c r="AT31" s="7"/>
@@ -22089,7 +21954,7 @@
       <c r="BT31" s="7"/>
       <c r="BU31" s="7"/>
     </row>
-    <row r="32" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="23"/>
       <c r="B32" s="24"/>
       <c r="C32" s="24"/>
@@ -22163,7 +22028,7 @@
       <c r="BT32" s="7"/>
       <c r="BU32" s="7"/>
     </row>
-    <row r="33" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="26"/>
       <c r="B33" s="27"/>
       <c r="C33" s="27"/>
@@ -22237,7 +22102,7 @@
       <c r="BT33" s="7"/>
       <c r="BU33" s="7"/>
     </row>
-    <row r="34" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="23"/>
       <c r="B34" s="24"/>
       <c r="C34" s="24"/>
@@ -22311,7 +22176,7 @@
       <c r="BT34" s="7"/>
       <c r="BU34" s="7"/>
     </row>
-    <row r="35" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="26"/>
       <c r="B35" s="27"/>
       <c r="C35" s="27"/>
@@ -22385,7 +22250,7 @@
       <c r="BT35" s="7"/>
       <c r="BU35" s="7"/>
     </row>
-    <row r="36" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="23"/>
       <c r="B36" s="24"/>
       <c r="C36" s="24"/>
@@ -22459,7 +22324,7 @@
       <c r="BT36" s="7"/>
       <c r="BU36" s="7"/>
     </row>
-    <row r="37" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="26"/>
       <c r="B37" s="27"/>
       <c r="C37" s="27"/>
@@ -22533,7 +22398,7 @@
       <c r="BT37" s="7"/>
       <c r="BU37" s="7"/>
     </row>
-    <row r="38" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="23"/>
       <c r="B38" s="24"/>
       <c r="C38" s="24"/>
@@ -22607,7 +22472,7 @@
       <c r="BT38" s="7"/>
       <c r="BU38" s="7"/>
     </row>
-    <row r="39" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="26"/>
       <c r="B39" s="27"/>
       <c r="C39" s="27"/>
@@ -22681,7 +22546,7 @@
       <c r="BT39" s="7"/>
       <c r="BU39" s="7"/>
     </row>
-    <row r="40" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="23"/>
       <c r="B40" s="24"/>
       <c r="C40" s="24"/>
@@ -22755,7 +22620,7 @@
       <c r="BT40" s="7"/>
       <c r="BU40" s="7"/>
     </row>
-    <row r="41" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="26"/>
       <c r="B41" s="27"/>
       <c r="C41" s="27"/>
@@ -22764,7 +22629,7 @@
       <c r="F41" s="27"/>
       <c r="G41" s="28"/>
     </row>
-    <row r="42" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="23"/>
       <c r="B42" s="24"/>
       <c r="C42" s="24"/>
@@ -22773,7 +22638,7 @@
       <c r="F42" s="24"/>
       <c r="G42" s="25"/>
     </row>
-    <row r="43" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="26"/>
       <c r="B43" s="27"/>
       <c r="C43" s="27"/>
@@ -22782,7 +22647,7 @@
       <c r="F43" s="27"/>
       <c r="G43" s="28"/>
     </row>
-    <row r="44" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="23"/>
       <c r="B44" s="24"/>
       <c r="C44" s="24"/>
@@ -22791,7 +22656,7 @@
       <c r="F44" s="24"/>
       <c r="G44" s="25"/>
     </row>
-    <row r="45" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="26"/>
       <c r="B45" s="27"/>
       <c r="C45" s="27"/>
@@ -22800,7 +22665,7 @@
       <c r="F45" s="27"/>
       <c r="G45" s="28"/>
     </row>
-    <row r="46" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="23"/>
       <c r="B46" s="24"/>
       <c r="C46" s="24"/>
@@ -22809,7 +22674,7 @@
       <c r="F46" s="24"/>
       <c r="G46" s="25"/>
     </row>
-    <row r="47" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="26"/>
       <c r="B47" s="27"/>
       <c r="C47" s="27"/>
@@ -22818,7 +22683,7 @@
       <c r="F47" s="27"/>
       <c r="G47" s="28"/>
     </row>
-    <row r="48" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="23"/>
       <c r="B48" s="24"/>
       <c r="C48" s="24"/>
@@ -22827,7 +22692,7 @@
       <c r="F48" s="24"/>
       <c r="G48" s="25"/>
     </row>
-    <row r="49" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="26"/>
       <c r="B49" s="27"/>
       <c r="C49" s="27"/>
@@ -22836,7 +22701,7 @@
       <c r="F49" s="27"/>
       <c r="G49" s="28"/>
     </row>
-    <row r="50" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="23"/>
       <c r="B50" s="24"/>
       <c r="C50" s="24"/>
@@ -22845,7 +22710,7 @@
       <c r="F50" s="24"/>
       <c r="G50" s="25"/>
     </row>
-    <row r="51" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="26"/>
       <c r="B51" s="27"/>
       <c r="C51" s="27"/>
@@ -23020,27 +22885,27 @@
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.08203125" defaultRowHeight="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="2.08203125" style="1"/>
+    <col min="1" max="16384" width="2.09765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:82" s="8" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:82" s="8" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="8" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:82" s="8" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="3" spans="1:82" s="8" customFormat="1" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="4" spans="1:82" s="10" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:82" s="8" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:82" s="8" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="4" spans="1:82" s="10" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:82" s="12" customFormat="1" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:82" s="12" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="11"/>
     </row>
-    <row r="6" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="13" t="s">
         <v>7</v>
       </c>
@@ -23051,7 +22916,7 @@
       <c r="F6" s="14"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="16"/>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
@@ -23136,7 +23001,7 @@
       <c r="CC7" s="39"/>
       <c r="CD7" s="40"/>
     </row>
-    <row r="8" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="19" t="s">
         <v>103</v>
       </c>
@@ -23221,7 +23086,7 @@
       <c r="CC8" s="42"/>
       <c r="CD8" s="43"/>
     </row>
-    <row r="9" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="16"/>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
@@ -23304,7 +23169,7 @@
       <c r="CC9" s="45"/>
       <c r="CD9" s="46"/>
     </row>
-    <row r="10" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="19" t="s">
         <v>104</v>
       </c>
@@ -23315,7 +23180,7 @@
       <c r="F10" s="20"/>
       <c r="G10" s="21"/>
     </row>
-    <row r="11" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="16"/>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
@@ -23398,7 +23263,7 @@
       <c r="CC11" s="48"/>
       <c r="CD11" s="49"/>
     </row>
-    <row r="12" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="19" t="s">
         <v>105</v>
       </c>
@@ -23483,7 +23348,7 @@
       <c r="CC12" s="51"/>
       <c r="CD12" s="52"/>
     </row>
-    <row r="13" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="16"/>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
@@ -23566,7 +23431,7 @@
       <c r="CC13" s="51"/>
       <c r="CD13" s="52"/>
     </row>
-    <row r="14" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="19" t="s">
         <v>106</v>
       </c>
@@ -23651,7 +23516,7 @@
       <c r="CC14" s="51"/>
       <c r="CD14" s="52"/>
     </row>
-    <row r="15" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="16"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
@@ -23734,7 +23599,7 @@
       <c r="CC15" s="51"/>
       <c r="CD15" s="52"/>
     </row>
-    <row r="16" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="56"/>
       <c r="B16" s="57"/>
       <c r="C16" s="57"/>
@@ -23817,7 +23682,7 @@
       <c r="CC16" s="51"/>
       <c r="CD16" s="52"/>
     </row>
-    <row r="17" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="59"/>
       <c r="B17" s="60"/>
       <c r="C17" s="60"/>
@@ -23900,7 +23765,7 @@
       <c r="CC17" s="51"/>
       <c r="CD17" s="52"/>
     </row>
-    <row r="18" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="56"/>
       <c r="B18" s="57"/>
       <c r="C18" s="57"/>
@@ -23983,7 +23848,7 @@
       <c r="CC18" s="51"/>
       <c r="CD18" s="52"/>
     </row>
-    <row r="19" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="59"/>
       <c r="B19" s="60"/>
       <c r="C19" s="60"/>
@@ -24066,7 +23931,7 @@
       <c r="CC19" s="51"/>
       <c r="CD19" s="52"/>
     </row>
-    <row r="20" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="56"/>
       <c r="B20" s="57"/>
       <c r="C20" s="57"/>
@@ -24149,7 +24014,7 @@
       <c r="CC20" s="51"/>
       <c r="CD20" s="52"/>
     </row>
-    <row r="21" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="59"/>
       <c r="B21" s="60"/>
       <c r="C21" s="60"/>
@@ -24232,7 +24097,7 @@
       <c r="CC21" s="51"/>
       <c r="CD21" s="52"/>
     </row>
-    <row r="22" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="56"/>
       <c r="B22" s="57"/>
       <c r="C22" s="57"/>
@@ -24315,7 +24180,7 @@
       <c r="CC22" s="51"/>
       <c r="CD22" s="52"/>
     </row>
-    <row r="23" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="59"/>
       <c r="B23" s="60"/>
       <c r="C23" s="60"/>
@@ -24398,7 +24263,7 @@
       <c r="CC23" s="51"/>
       <c r="CD23" s="52"/>
     </row>
-    <row r="24" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="56"/>
       <c r="B24" s="57"/>
       <c r="C24" s="57"/>
@@ -24481,7 +24346,7 @@
       <c r="CC24" s="51"/>
       <c r="CD24" s="52"/>
     </row>
-    <row r="25" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="59"/>
       <c r="B25" s="60"/>
       <c r="C25" s="60"/>
@@ -24564,7 +24429,7 @@
       <c r="CC25" s="51"/>
       <c r="CD25" s="52"/>
     </row>
-    <row r="26" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="56"/>
       <c r="B26" s="57"/>
       <c r="C26" s="57"/>
@@ -24647,7 +24512,7 @@
       <c r="CC26" s="51"/>
       <c r="CD26" s="52"/>
     </row>
-    <row r="27" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="59"/>
       <c r="B27" s="60"/>
       <c r="C27" s="60"/>
@@ -24730,7 +24595,7 @@
       <c r="CC27" s="51"/>
       <c r="CD27" s="52"/>
     </row>
-    <row r="28" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="56"/>
       <c r="B28" s="57"/>
       <c r="C28" s="57"/>
@@ -24813,7 +24678,7 @@
       <c r="CC28" s="51"/>
       <c r="CD28" s="52"/>
     </row>
-    <row r="29" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="59"/>
       <c r="B29" s="60"/>
       <c r="C29" s="60"/>
@@ -24896,7 +24761,7 @@
       <c r="CC29" s="51"/>
       <c r="CD29" s="52"/>
     </row>
-    <row r="30" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="56"/>
       <c r="B30" s="57"/>
       <c r="C30" s="57"/>
@@ -24979,7 +24844,7 @@
       <c r="CC30" s="51"/>
       <c r="CD30" s="52"/>
     </row>
-    <row r="31" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="59"/>
       <c r="B31" s="60"/>
       <c r="C31" s="60"/>
@@ -25062,7 +24927,7 @@
       <c r="CC31" s="51"/>
       <c r="CD31" s="52"/>
     </row>
-    <row r="32" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="56"/>
       <c r="B32" s="57"/>
       <c r="C32" s="57"/>
@@ -25145,7 +25010,7 @@
       <c r="CC32" s="51"/>
       <c r="CD32" s="52"/>
     </row>
-    <row r="33" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="59"/>
       <c r="B33" s="60"/>
       <c r="C33" s="60"/>
@@ -25228,7 +25093,7 @@
       <c r="CC33" s="51"/>
       <c r="CD33" s="52"/>
     </row>
-    <row r="34" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="56"/>
       <c r="B34" s="57"/>
       <c r="C34" s="57"/>
@@ -25311,7 +25176,7 @@
       <c r="CC34" s="51"/>
       <c r="CD34" s="52"/>
     </row>
-    <row r="35" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="59"/>
       <c r="B35" s="60"/>
       <c r="C35" s="60"/>
@@ -25394,7 +25259,7 @@
       <c r="CC35" s="51"/>
       <c r="CD35" s="52"/>
     </row>
-    <row r="36" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="56"/>
       <c r="B36" s="57"/>
       <c r="C36" s="57"/>
@@ -25477,7 +25342,7 @@
       <c r="CC36" s="51"/>
       <c r="CD36" s="52"/>
     </row>
-    <row r="37" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="59"/>
       <c r="B37" s="60"/>
       <c r="C37" s="60"/>
@@ -25560,7 +25425,7 @@
       <c r="CC37" s="51"/>
       <c r="CD37" s="52"/>
     </row>
-    <row r="38" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="56"/>
       <c r="B38" s="57"/>
       <c r="C38" s="57"/>
@@ -25643,7 +25508,7 @@
       <c r="CC38" s="51"/>
       <c r="CD38" s="52"/>
     </row>
-    <row r="39" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="59"/>
       <c r="B39" s="60"/>
       <c r="C39" s="60"/>
@@ -25726,7 +25591,7 @@
       <c r="CC39" s="51"/>
       <c r="CD39" s="52"/>
     </row>
-    <row r="40" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="56"/>
       <c r="B40" s="57"/>
       <c r="C40" s="57"/>
@@ -25809,7 +25674,7 @@
       <c r="CC40" s="51"/>
       <c r="CD40" s="52"/>
     </row>
-    <row r="41" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="59"/>
       <c r="B41" s="60"/>
       <c r="C41" s="60"/>
@@ -25892,7 +25757,7 @@
       <c r="CC41" s="51"/>
       <c r="CD41" s="52"/>
     </row>
-    <row r="42" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="56"/>
       <c r="B42" s="57"/>
       <c r="C42" s="57"/>
@@ -25975,7 +25840,7 @@
       <c r="CC42" s="51"/>
       <c r="CD42" s="52"/>
     </row>
-    <row r="43" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="59"/>
       <c r="B43" s="60"/>
       <c r="C43" s="60"/>
@@ -26058,7 +25923,7 @@
       <c r="CC43" s="51"/>
       <c r="CD43" s="52"/>
     </row>
-    <row r="44" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="56"/>
       <c r="B44" s="57"/>
       <c r="C44" s="57"/>
@@ -26141,7 +26006,7 @@
       <c r="CC44" s="51"/>
       <c r="CD44" s="52"/>
     </row>
-    <row r="45" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="59"/>
       <c r="B45" s="60"/>
       <c r="C45" s="60"/>
@@ -26224,7 +26089,7 @@
       <c r="CC45" s="51"/>
       <c r="CD45" s="52"/>
     </row>
-    <row r="46" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="56"/>
       <c r="B46" s="57"/>
       <c r="C46" s="57"/>
@@ -26307,7 +26172,7 @@
       <c r="CC46" s="51"/>
       <c r="CD46" s="52"/>
     </row>
-    <row r="47" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="59"/>
       <c r="B47" s="60"/>
       <c r="C47" s="60"/>
@@ -26390,7 +26255,7 @@
       <c r="CC47" s="51"/>
       <c r="CD47" s="52"/>
     </row>
-    <row r="48" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="56"/>
       <c r="B48" s="57"/>
       <c r="C48" s="57"/>
@@ -26473,7 +26338,7 @@
       <c r="CC48" s="51"/>
       <c r="CD48" s="52"/>
     </row>
-    <row r="49" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="59"/>
       <c r="B49" s="60"/>
       <c r="C49" s="60"/>
@@ -26556,7 +26421,7 @@
       <c r="CC49" s="51"/>
       <c r="CD49" s="52"/>
     </row>
-    <row r="50" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="56"/>
       <c r="B50" s="57"/>
       <c r="C50" s="57"/>
@@ -26639,7 +26504,7 @@
       <c r="CC50" s="51"/>
       <c r="CD50" s="52"/>
     </row>
-    <row r="51" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="59"/>
       <c r="B51" s="60"/>
       <c r="C51" s="60"/>
@@ -26722,7 +26587,7 @@
       <c r="CC51" s="51"/>
       <c r="CD51" s="52"/>
     </row>
-    <row r="52" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I52" s="50"/>
       <c r="J52" s="51"/>
       <c r="K52" s="51"/>
@@ -26798,7 +26663,7 @@
       <c r="CC52" s="51"/>
       <c r="CD52" s="52"/>
     </row>
-    <row r="53" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I53" s="50"/>
       <c r="J53" s="51"/>
       <c r="K53" s="51"/>
@@ -26874,7 +26739,7 @@
       <c r="CC53" s="51"/>
       <c r="CD53" s="52"/>
     </row>
-    <row r="54" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I54" s="50"/>
       <c r="J54" s="51"/>
       <c r="K54" s="51"/>
@@ -26950,7 +26815,7 @@
       <c r="CC54" s="51"/>
       <c r="CD54" s="52"/>
     </row>
-    <row r="55" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I55" s="50"/>
       <c r="J55" s="51"/>
       <c r="K55" s="51"/>
@@ -27026,7 +26891,7 @@
       <c r="CC55" s="51"/>
       <c r="CD55" s="52"/>
     </row>
-    <row r="56" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I56" s="50"/>
       <c r="J56" s="51"/>
       <c r="K56" s="51"/>
@@ -27102,7 +26967,7 @@
       <c r="CC56" s="51"/>
       <c r="CD56" s="52"/>
     </row>
-    <row r="57" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I57" s="50"/>
       <c r="J57" s="51"/>
       <c r="K57" s="51"/>
@@ -27178,7 +27043,7 @@
       <c r="CC57" s="51"/>
       <c r="CD57" s="52"/>
     </row>
-    <row r="58" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I58" s="50"/>
       <c r="J58" s="51"/>
       <c r="K58" s="51"/>
@@ -27254,7 +27119,7 @@
       <c r="CC58" s="51"/>
       <c r="CD58" s="52"/>
     </row>
-    <row r="59" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I59" s="50"/>
       <c r="J59" s="51"/>
       <c r="K59" s="51"/>
@@ -27330,7 +27195,7 @@
       <c r="CC59" s="51"/>
       <c r="CD59" s="52"/>
     </row>
-    <row r="60" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I60" s="50"/>
       <c r="J60" s="51"/>
       <c r="K60" s="51"/>
@@ -27406,7 +27271,7 @@
       <c r="CC60" s="51"/>
       <c r="CD60" s="52"/>
     </row>
-    <row r="61" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I61" s="50"/>
       <c r="J61" s="51"/>
       <c r="K61" s="51"/>
@@ -27482,7 +27347,7 @@
       <c r="CC61" s="51"/>
       <c r="CD61" s="52"/>
     </row>
-    <row r="62" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I62" s="50"/>
       <c r="J62" s="51"/>
       <c r="K62" s="51"/>
@@ -27558,7 +27423,7 @@
       <c r="CC62" s="51"/>
       <c r="CD62" s="52"/>
     </row>
-    <row r="63" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I63" s="50"/>
       <c r="J63" s="51"/>
       <c r="K63" s="51"/>
@@ -27634,7 +27499,7 @@
       <c r="CC63" s="51"/>
       <c r="CD63" s="52"/>
     </row>
-    <row r="64" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I64" s="50"/>
       <c r="J64" s="51"/>
       <c r="K64" s="51"/>
@@ -27710,7 +27575,7 @@
       <c r="CC64" s="51"/>
       <c r="CD64" s="52"/>
     </row>
-    <row r="65" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I65" s="50"/>
       <c r="J65" s="51"/>
       <c r="K65" s="51"/>
@@ -27786,7 +27651,7 @@
       <c r="CC65" s="51"/>
       <c r="CD65" s="52"/>
     </row>
-    <row r="66" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I66" s="50"/>
       <c r="J66" s="51"/>
       <c r="K66" s="51"/>
@@ -27862,7 +27727,7 @@
       <c r="CC66" s="51"/>
       <c r="CD66" s="52"/>
     </row>
-    <row r="67" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I67" s="50"/>
       <c r="J67" s="51"/>
       <c r="K67" s="51"/>
@@ -27938,7 +27803,7 @@
       <c r="CC67" s="51"/>
       <c r="CD67" s="52"/>
     </row>
-    <row r="68" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I68" s="50"/>
       <c r="J68" s="51"/>
       <c r="K68" s="51"/>
@@ -28014,7 +27879,7 @@
       <c r="CC68" s="51"/>
       <c r="CD68" s="52"/>
     </row>
-    <row r="69" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I69" s="50"/>
       <c r="J69" s="51"/>
       <c r="K69" s="51"/>
@@ -28090,7 +27955,7 @@
       <c r="CC69" s="51"/>
       <c r="CD69" s="52"/>
     </row>
-    <row r="70" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I70" s="50"/>
       <c r="J70" s="51"/>
       <c r="K70" s="51"/>
@@ -28166,7 +28031,7 @@
       <c r="CC70" s="51"/>
       <c r="CD70" s="52"/>
     </row>
-    <row r="71" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I71" s="50"/>
       <c r="J71" s="51"/>
       <c r="K71" s="51"/>
@@ -28242,7 +28107,7 @@
       <c r="CC71" s="51"/>
       <c r="CD71" s="52"/>
     </row>
-    <row r="72" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I72" s="50"/>
       <c r="J72" s="51"/>
       <c r="K72" s="51"/>
@@ -28318,7 +28183,7 @@
       <c r="CC72" s="51"/>
       <c r="CD72" s="52"/>
     </row>
-    <row r="73" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I73" s="50"/>
       <c r="J73" s="51"/>
       <c r="K73" s="51"/>
@@ -28394,7 +28259,7 @@
       <c r="CC73" s="51"/>
       <c r="CD73" s="52"/>
     </row>
-    <row r="74" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I74" s="50"/>
       <c r="J74" s="51"/>
       <c r="K74" s="51"/>
@@ -28470,7 +28335,7 @@
       <c r="CC74" s="51"/>
       <c r="CD74" s="52"/>
     </row>
-    <row r="75" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I75" s="50"/>
       <c r="J75" s="51"/>
       <c r="K75" s="51"/>
@@ -28546,7 +28411,7 @@
       <c r="CC75" s="51"/>
       <c r="CD75" s="52"/>
     </row>
-    <row r="76" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I76" s="50"/>
       <c r="J76" s="51"/>
       <c r="K76" s="51"/>
@@ -28622,7 +28487,7 @@
       <c r="CC76" s="51"/>
       <c r="CD76" s="52"/>
     </row>
-    <row r="77" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I77" s="50"/>
       <c r="J77" s="51"/>
       <c r="K77" s="51"/>
@@ -28698,7 +28563,7 @@
       <c r="CC77" s="51"/>
       <c r="CD77" s="52"/>
     </row>
-    <row r="78" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I78" s="50"/>
       <c r="J78" s="51"/>
       <c r="K78" s="51"/>
@@ -28774,7 +28639,7 @@
       <c r="CC78" s="51"/>
       <c r="CD78" s="52"/>
     </row>
-    <row r="79" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I79" s="50"/>
       <c r="J79" s="51"/>
       <c r="K79" s="51"/>
@@ -28850,7 +28715,7 @@
       <c r="CC79" s="51"/>
       <c r="CD79" s="52"/>
     </row>
-    <row r="80" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I80" s="50"/>
       <c r="J80" s="51"/>
       <c r="K80" s="51"/>
@@ -28926,7 +28791,7 @@
       <c r="CC80" s="51"/>
       <c r="CD80" s="52"/>
     </row>
-    <row r="81" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I81" s="50"/>
       <c r="J81" s="51"/>
       <c r="K81" s="51"/>
@@ -29002,7 +28867,7 @@
       <c r="CC81" s="51"/>
       <c r="CD81" s="52"/>
     </row>
-    <row r="82" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I82" s="50"/>
       <c r="J82" s="51"/>
       <c r="K82" s="51"/>
@@ -29078,7 +28943,7 @@
       <c r="CC82" s="51"/>
       <c r="CD82" s="52"/>
     </row>
-    <row r="83" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I83" s="50"/>
       <c r="J83" s="51"/>
       <c r="K83" s="51"/>
@@ -29154,7 +29019,7 @@
       <c r="CC83" s="51"/>
       <c r="CD83" s="52"/>
     </row>
-    <row r="84" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I84" s="50"/>
       <c r="J84" s="51"/>
       <c r="K84" s="51"/>
@@ -29230,7 +29095,7 @@
       <c r="CC84" s="51"/>
       <c r="CD84" s="52"/>
     </row>
-    <row r="85" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I85" s="50"/>
       <c r="J85" s="51"/>
       <c r="K85" s="51"/>
@@ -29306,7 +29171,7 @@
       <c r="CC85" s="51"/>
       <c r="CD85" s="52"/>
     </row>
-    <row r="86" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I86" s="50"/>
       <c r="J86" s="51"/>
       <c r="K86" s="51"/>
@@ -29382,7 +29247,7 @@
       <c r="CC86" s="51"/>
       <c r="CD86" s="52"/>
     </row>
-    <row r="87" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I87" s="50"/>
       <c r="J87" s="51"/>
       <c r="K87" s="51"/>
@@ -29458,7 +29323,7 @@
       <c r="CC87" s="51"/>
       <c r="CD87" s="52"/>
     </row>
-    <row r="88" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I88" s="50"/>
       <c r="J88" s="51"/>
       <c r="K88" s="51"/>
@@ -29534,7 +29399,7 @@
       <c r="CC88" s="51"/>
       <c r="CD88" s="52"/>
     </row>
-    <row r="89" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I89" s="50"/>
       <c r="J89" s="51"/>
       <c r="K89" s="51"/>
@@ -29610,7 +29475,7 @@
       <c r="CC89" s="51"/>
       <c r="CD89" s="52"/>
     </row>
-    <row r="90" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I90" s="50"/>
       <c r="J90" s="51"/>
       <c r="K90" s="51"/>
@@ -29686,7 +29551,7 @@
       <c r="CC90" s="51"/>
       <c r="CD90" s="52"/>
     </row>
-    <row r="91" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I91" s="50"/>
       <c r="J91" s="51"/>
       <c r="K91" s="51"/>
@@ -29762,7 +29627,7 @@
       <c r="CC91" s="51"/>
       <c r="CD91" s="52"/>
     </row>
-    <row r="92" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I92" s="50"/>
       <c r="J92" s="51"/>
       <c r="K92" s="51"/>
@@ -29838,7 +29703,7 @@
       <c r="CC92" s="51"/>
       <c r="CD92" s="52"/>
     </row>
-    <row r="93" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I93" s="50"/>
       <c r="J93" s="51"/>
       <c r="K93" s="51"/>
@@ -29914,7 +29779,7 @@
       <c r="CC93" s="51"/>
       <c r="CD93" s="52"/>
     </row>
-    <row r="94" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I94" s="50"/>
       <c r="J94" s="51"/>
       <c r="K94" s="51"/>
@@ -29990,7 +29855,7 @@
       <c r="CC94" s="51"/>
       <c r="CD94" s="52"/>
     </row>
-    <row r="95" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I95" s="50"/>
       <c r="J95" s="51"/>
       <c r="K95" s="51"/>
@@ -30066,7 +29931,7 @@
       <c r="CC95" s="51"/>
       <c r="CD95" s="52"/>
     </row>
-    <row r="96" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I96" s="50"/>
       <c r="J96" s="51"/>
       <c r="K96" s="51"/>
@@ -30142,7 +30007,7 @@
       <c r="CC96" s="51"/>
       <c r="CD96" s="52"/>
     </row>
-    <row r="97" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I97" s="50"/>
       <c r="J97" s="51"/>
       <c r="K97" s="51"/>
@@ -30218,7 +30083,7 @@
       <c r="CC97" s="51"/>
       <c r="CD97" s="52"/>
     </row>
-    <row r="98" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I98" s="50"/>
       <c r="J98" s="51"/>
       <c r="K98" s="51"/>
@@ -30294,7 +30159,7 @@
       <c r="CC98" s="51"/>
       <c r="CD98" s="52"/>
     </row>
-    <row r="99" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I99" s="50"/>
       <c r="J99" s="51"/>
       <c r="K99" s="51"/>
@@ -30370,7 +30235,7 @@
       <c r="CC99" s="51"/>
       <c r="CD99" s="52"/>
     </row>
-    <row r="100" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I100" s="50"/>
       <c r="J100" s="51"/>
       <c r="K100" s="51"/>
@@ -30446,7 +30311,7 @@
       <c r="CC100" s="51"/>
       <c r="CD100" s="52"/>
     </row>
-    <row r="101" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I101" s="50"/>
       <c r="J101" s="51"/>
       <c r="K101" s="51"/>
@@ -30522,7 +30387,7 @@
       <c r="CC101" s="51"/>
       <c r="CD101" s="52"/>
     </row>
-    <row r="102" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I102" s="50"/>
       <c r="J102" s="51"/>
       <c r="K102" s="51"/>
@@ -30598,7 +30463,7 @@
       <c r="CC102" s="51"/>
       <c r="CD102" s="52"/>
     </row>
-    <row r="103" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I103" s="50"/>
       <c r="J103" s="51"/>
       <c r="K103" s="51"/>
@@ -30674,7 +30539,7 @@
       <c r="CC103" s="51"/>
       <c r="CD103" s="52"/>
     </row>
-    <row r="104" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I104" s="50"/>
       <c r="J104" s="51"/>
       <c r="K104" s="51"/>
@@ -30750,7 +30615,7 @@
       <c r="CC104" s="51"/>
       <c r="CD104" s="52"/>
     </row>
-    <row r="105" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I105" s="50"/>
       <c r="J105" s="51"/>
       <c r="K105" s="51"/>
@@ -30826,7 +30691,7 @@
       <c r="CC105" s="51"/>
       <c r="CD105" s="52"/>
     </row>
-    <row r="106" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I106" s="50"/>
       <c r="J106" s="51"/>
       <c r="K106" s="51"/>
@@ -30902,7 +30767,7 @@
       <c r="CC106" s="51"/>
       <c r="CD106" s="52"/>
     </row>
-    <row r="107" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I107" s="50"/>
       <c r="J107" s="51"/>
       <c r="K107" s="51"/>
@@ -30978,7 +30843,7 @@
       <c r="CC107" s="51"/>
       <c r="CD107" s="52"/>
     </row>
-    <row r="108" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="108" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I108" s="53"/>
       <c r="J108" s="54"/>
       <c r="K108" s="54"/>
@@ -31106,27 +30971,27 @@
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.08203125" defaultRowHeight="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="2.08203125" style="1"/>
+    <col min="1" max="16384" width="2.09765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:82" s="8" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:82" s="8" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="8" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:82" s="8" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="3" spans="1:82" s="8" customFormat="1" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="4" spans="1:82" s="10" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:82" s="8" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:82" s="8" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="4" spans="1:82" s="10" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:82" s="12" customFormat="1" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:82" s="12" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="11"/>
     </row>
-    <row r="6" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="13" t="s">
         <v>7</v>
       </c>
@@ -31137,7 +31002,7 @@
       <c r="F6" s="14"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="16"/>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
@@ -31222,7 +31087,7 @@
       <c r="CC7" s="39"/>
       <c r="CD7" s="40"/>
     </row>
-    <row r="8" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="19" t="s">
         <v>103</v>
       </c>
@@ -31307,7 +31172,7 @@
       <c r="CC8" s="42"/>
       <c r="CD8" s="43"/>
     </row>
-    <row r="9" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="16"/>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
@@ -31390,7 +31255,7 @@
       <c r="CC9" s="45"/>
       <c r="CD9" s="46"/>
     </row>
-    <row r="10" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="19" t="s">
         <v>104</v>
       </c>
@@ -31401,7 +31266,7 @@
       <c r="F10" s="20"/>
       <c r="G10" s="21"/>
     </row>
-    <row r="11" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="16"/>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
@@ -31486,7 +31351,7 @@
       <c r="CC11" s="68"/>
       <c r="CD11" s="69"/>
     </row>
-    <row r="12" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="19" t="s">
         <v>105</v>
       </c>
@@ -31571,7 +31436,7 @@
       <c r="CC12" s="71"/>
       <c r="CD12" s="72"/>
     </row>
-    <row r="13" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="16"/>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
@@ -31654,7 +31519,7 @@
       <c r="CC13" s="74"/>
       <c r="CD13" s="75"/>
     </row>
-    <row r="14" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="19" t="s">
         <v>106</v>
       </c>
@@ -31749,7 +31614,7 @@
       <c r="CC14" s="76"/>
       <c r="CD14" s="76"/>
     </row>
-    <row r="15" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="16"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
@@ -31842,7 +31707,7 @@
       <c r="CC15" s="62"/>
       <c r="CD15" s="62"/>
     </row>
-    <row r="16" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="56"/>
       <c r="B16" s="57"/>
       <c r="C16" s="57"/>
@@ -31935,7 +31800,7 @@
       <c r="CC16" s="66"/>
       <c r="CD16" s="66"/>
     </row>
-    <row r="17" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="59"/>
       <c r="B17" s="60"/>
       <c r="C17" s="60"/>
@@ -32028,7 +31893,7 @@
       <c r="CC17" s="66"/>
       <c r="CD17" s="66"/>
     </row>
-    <row r="18" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="56"/>
       <c r="B18" s="57"/>
       <c r="C18" s="57"/>
@@ -32121,7 +31986,7 @@
       <c r="CC18" s="66"/>
       <c r="CD18" s="66"/>
     </row>
-    <row r="19" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="59"/>
       <c r="B19" s="60"/>
       <c r="C19" s="60"/>
@@ -32214,7 +32079,7 @@
       <c r="CC19" s="66"/>
       <c r="CD19" s="66"/>
     </row>
-    <row r="20" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="56"/>
       <c r="B20" s="57"/>
       <c r="C20" s="57"/>
@@ -32307,7 +32172,7 @@
       <c r="CC20" s="66"/>
       <c r="CD20" s="66"/>
     </row>
-    <row r="21" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="59"/>
       <c r="B21" s="60"/>
       <c r="C21" s="60"/>
@@ -32400,7 +32265,7 @@
       <c r="CC21" s="66"/>
       <c r="CD21" s="66"/>
     </row>
-    <row r="22" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="56"/>
       <c r="B22" s="57"/>
       <c r="C22" s="57"/>
@@ -32483,7 +32348,7 @@
       <c r="CC22" s="66"/>
       <c r="CD22" s="66"/>
     </row>
-    <row r="23" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="59"/>
       <c r="B23" s="60"/>
       <c r="C23" s="60"/>
@@ -32566,7 +32431,7 @@
       <c r="CC23" s="66"/>
       <c r="CD23" s="66"/>
     </row>
-    <row r="24" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="56"/>
       <c r="B24" s="57"/>
       <c r="C24" s="57"/>
@@ -32649,7 +32514,7 @@
       <c r="CC24" s="66"/>
       <c r="CD24" s="66"/>
     </row>
-    <row r="25" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="59"/>
       <c r="B25" s="60"/>
       <c r="C25" s="60"/>
@@ -32732,7 +32597,7 @@
       <c r="CC25" s="66"/>
       <c r="CD25" s="66"/>
     </row>
-    <row r="26" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="56"/>
       <c r="B26" s="57"/>
       <c r="C26" s="57"/>
@@ -32741,7 +32606,7 @@
       <c r="F26" s="57"/>
       <c r="G26" s="58"/>
     </row>
-    <row r="27" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="59"/>
       <c r="B27" s="60"/>
       <c r="C27" s="60"/>
@@ -32750,7 +32615,7 @@
       <c r="F27" s="60"/>
       <c r="G27" s="61"/>
     </row>
-    <row r="28" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A28" s="56"/>
       <c r="B28" s="57"/>
       <c r="C28" s="57"/>
@@ -32759,7 +32624,7 @@
       <c r="F28" s="57"/>
       <c r="G28" s="58"/>
     </row>
-    <row r="29" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="59"/>
       <c r="B29" s="60"/>
       <c r="C29" s="60"/>
@@ -32844,7 +32709,7 @@
       <c r="CC29" s="68"/>
       <c r="CD29" s="69"/>
     </row>
-    <row r="30" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="56"/>
       <c r="B30" s="57"/>
       <c r="C30" s="57"/>
@@ -32927,7 +32792,7 @@
       <c r="CC30" s="71"/>
       <c r="CD30" s="72"/>
     </row>
-    <row r="31" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A31" s="59"/>
       <c r="B31" s="60"/>
       <c r="C31" s="60"/>
@@ -33010,7 +32875,7 @@
       <c r="CC31" s="74"/>
       <c r="CD31" s="75"/>
     </row>
-    <row r="32" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32" s="56"/>
       <c r="B32" s="57"/>
       <c r="C32" s="57"/>
@@ -33101,7 +32966,7 @@
       <c r="CC32" s="76"/>
       <c r="CD32" s="76"/>
     </row>
-    <row r="33" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="59"/>
       <c r="B33" s="60"/>
       <c r="C33" s="60"/>
@@ -33192,7 +33057,7 @@
       <c r="CC33" s="66"/>
       <c r="CD33" s="66"/>
     </row>
-    <row r="34" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="56"/>
       <c r="B34" s="57"/>
       <c r="C34" s="57"/>
@@ -33275,7 +33140,7 @@
       <c r="CC34" s="66"/>
       <c r="CD34" s="66"/>
     </row>
-    <row r="35" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="59"/>
       <c r="B35" s="60"/>
       <c r="C35" s="60"/>
@@ -33358,7 +33223,7 @@
       <c r="CC35" s="66"/>
       <c r="CD35" s="66"/>
     </row>
-    <row r="36" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="56"/>
       <c r="B36" s="57"/>
       <c r="C36" s="57"/>
@@ -33441,7 +33306,7 @@
       <c r="CC36" s="66"/>
       <c r="CD36" s="66"/>
     </row>
-    <row r="37" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="59"/>
       <c r="B37" s="60"/>
       <c r="C37" s="60"/>
@@ -33450,7 +33315,7 @@
       <c r="F37" s="60"/>
       <c r="G37" s="61"/>
     </row>
-    <row r="38" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="56"/>
       <c r="B38" s="57"/>
       <c r="C38" s="57"/>
@@ -33459,7 +33324,7 @@
       <c r="F38" s="57"/>
       <c r="G38" s="58"/>
     </row>
-    <row r="39" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A39" s="59"/>
       <c r="B39" s="60"/>
       <c r="C39" s="60"/>
@@ -33468,7 +33333,7 @@
       <c r="F39" s="60"/>
       <c r="G39" s="61"/>
     </row>
-    <row r="40" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="56"/>
       <c r="B40" s="57"/>
       <c r="C40" s="57"/>
@@ -33553,7 +33418,7 @@
       <c r="CC40" s="68"/>
       <c r="CD40" s="69"/>
     </row>
-    <row r="41" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="59"/>
       <c r="B41" s="60"/>
       <c r="C41" s="60"/>
@@ -33636,7 +33501,7 @@
       <c r="CC41" s="71"/>
       <c r="CD41" s="72"/>
     </row>
-    <row r="42" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A42" s="56"/>
       <c r="B42" s="57"/>
       <c r="C42" s="57"/>
@@ -33719,7 +33584,7 @@
       <c r="CC42" s="74"/>
       <c r="CD42" s="75"/>
     </row>
-    <row r="43" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A43" s="59"/>
       <c r="B43" s="60"/>
       <c r="C43" s="60"/>
@@ -33812,7 +33677,7 @@
       <c r="CC43" s="76"/>
       <c r="CD43" s="76"/>
     </row>
-    <row r="44" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="56"/>
       <c r="B44" s="57"/>
       <c r="C44" s="57"/>
@@ -33905,7 +33770,7 @@
       <c r="CC44" s="66"/>
       <c r="CD44" s="66"/>
     </row>
-    <row r="45" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="59"/>
       <c r="B45" s="60"/>
       <c r="C45" s="60"/>
@@ -33998,7 +33863,7 @@
       <c r="CC45" s="66"/>
       <c r="CD45" s="66"/>
     </row>
-    <row r="46" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="56"/>
       <c r="B46" s="57"/>
       <c r="C46" s="57"/>
@@ -34091,7 +33956,7 @@
       <c r="CC46" s="66"/>
       <c r="CD46" s="66"/>
     </row>
-    <row r="47" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="59"/>
       <c r="B47" s="60"/>
       <c r="C47" s="60"/>
@@ -34184,7 +34049,7 @@
       <c r="CC47" s="64"/>
       <c r="CD47" s="65"/>
     </row>
-    <row r="48" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="56"/>
       <c r="B48" s="57"/>
       <c r="C48" s="57"/>
@@ -34277,7 +34142,7 @@
       <c r="CC48" s="64"/>
       <c r="CD48" s="65"/>
     </row>
-    <row r="49" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="59"/>
       <c r="B49" s="60"/>
       <c r="C49" s="60"/>
@@ -34360,7 +34225,7 @@
       <c r="CC49" s="64"/>
       <c r="CD49" s="65"/>
     </row>
-    <row r="50" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="56"/>
       <c r="B50" s="57"/>
       <c r="C50" s="57"/>
@@ -34443,7 +34308,7 @@
       <c r="CC50" s="66"/>
       <c r="CD50" s="66"/>
     </row>
-    <row r="51" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="59"/>
       <c r="B51" s="60"/>
       <c r="C51" s="60"/>
@@ -34526,7 +34391,7 @@
       <c r="CC51" s="66"/>
       <c r="CD51" s="66"/>
     </row>
-    <row r="52" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="56"/>
       <c r="B52" s="57"/>
       <c r="C52" s="57"/>
@@ -34609,7 +34474,7 @@
       <c r="CC52" s="3"/>
       <c r="CD52" s="3"/>
     </row>
-    <row r="53" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="59"/>
       <c r="B53" s="60"/>
       <c r="C53" s="60"/>
@@ -34692,7 +34557,7 @@
       <c r="CC53" s="2"/>
       <c r="CD53" s="2"/>
     </row>
-    <row r="54" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
@@ -34768,7 +34633,7 @@
       <c r="CC54" s="2"/>
       <c r="CD54" s="2"/>
     </row>
-    <row r="55" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I55" s="67" t="s">
         <v>71</v>
       </c>
@@ -34846,7 +34711,7 @@
       <c r="CC55" s="68"/>
       <c r="CD55" s="69"/>
     </row>
-    <row r="56" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I56" s="70"/>
       <c r="J56" s="71"/>
       <c r="K56" s="71"/>
@@ -34922,7 +34787,7 @@
       <c r="CC56" s="71"/>
       <c r="CD56" s="72"/>
     </row>
-    <row r="57" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I57" s="73"/>
       <c r="J57" s="74"/>
       <c r="K57" s="74"/>
@@ -34998,7 +34863,7 @@
       <c r="CC57" s="74"/>
       <c r="CD57" s="75"/>
     </row>
-    <row r="58" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I58" s="76" t="s">
         <v>2</v>
       </c>
@@ -35084,7 +34949,7 @@
       <c r="CC58" s="76"/>
       <c r="CD58" s="76"/>
     </row>
-    <row r="59" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I59" s="62" t="s">
         <v>73</v>
       </c>
@@ -35170,7 +35035,7 @@
       <c r="CC59" s="62"/>
       <c r="CD59" s="62"/>
     </row>
-    <row r="60" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I60" s="66"/>
       <c r="J60" s="66"/>
       <c r="K60" s="66"/>
@@ -35246,7 +35111,7 @@
       <c r="CC60" s="66"/>
       <c r="CD60" s="66"/>
     </row>
-    <row r="61" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I61" s="66"/>
       <c r="J61" s="66"/>
       <c r="K61" s="66"/>
@@ -35322,7 +35187,7 @@
       <c r="CC61" s="66"/>
       <c r="CD61" s="66"/>
     </row>
-    <row r="62" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I62" s="66"/>
       <c r="J62" s="66"/>
       <c r="K62" s="66"/>
@@ -35398,8 +35263,8 @@
       <c r="CC62" s="66"/>
       <c r="CD62" s="66"/>
     </row>
-    <row r="65" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="66" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="66" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I66" s="67" t="s">
         <v>53</v>
       </c>
@@ -35477,7 +35342,7 @@
       <c r="CC66" s="68"/>
       <c r="CD66" s="69"/>
     </row>
-    <row r="67" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I67" s="70"/>
       <c r="J67" s="71"/>
       <c r="K67" s="71"/>
@@ -35553,7 +35418,7 @@
       <c r="CC67" s="71"/>
       <c r="CD67" s="72"/>
     </row>
-    <row r="68" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="68" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I68" s="73"/>
       <c r="J68" s="74"/>
       <c r="K68" s="74"/>
@@ -35629,7 +35494,7 @@
       <c r="CC68" s="74"/>
       <c r="CD68" s="75"/>
     </row>
-    <row r="69" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="69" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I69" s="76" t="s">
         <v>2</v>
       </c>
@@ -35715,7 +35580,7 @@
       <c r="CC69" s="76"/>
       <c r="CD69" s="76"/>
     </row>
-    <row r="70" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I70" s="66" t="s">
         <v>55</v>
       </c>
@@ -35801,7 +35666,7 @@
       <c r="CC70" s="66"/>
       <c r="CD70" s="66"/>
     </row>
-    <row r="71" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I71" s="66"/>
       <c r="J71" s="66"/>
       <c r="K71" s="66"/>
@@ -35877,7 +35742,7 @@
       <c r="CC71" s="66"/>
       <c r="CD71" s="66"/>
     </row>
-    <row r="72" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I72" s="66"/>
       <c r="J72" s="66"/>
       <c r="K72" s="66"/>
@@ -35953,7 +35818,7 @@
       <c r="CC72" s="66"/>
       <c r="CD72" s="66"/>
     </row>
-    <row r="73" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I73" s="66"/>
       <c r="J73" s="66"/>
       <c r="K73" s="66"/>
@@ -36265,27 +36130,27 @@
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.08203125" defaultRowHeight="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="2.08203125" style="1"/>
+    <col min="1" max="16384" width="2.09765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:82" s="8" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:82" s="8" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="8" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:82" s="8" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="3" spans="1:82" s="8" customFormat="1" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="4" spans="1:82" s="10" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:82" s="8" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:82" s="8" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="4" spans="1:82" s="10" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:82" s="12" customFormat="1" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:82" s="12" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="11"/>
     </row>
-    <row r="6" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="13" t="s">
         <v>7</v>
       </c>
@@ -36296,7 +36161,7 @@
       <c r="F6" s="14"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="16"/>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
@@ -36381,7 +36246,7 @@
       <c r="CC7" s="39"/>
       <c r="CD7" s="40"/>
     </row>
-    <row r="8" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="19" t="s">
         <v>103</v>
       </c>
@@ -36466,7 +36331,7 @@
       <c r="CC8" s="42"/>
       <c r="CD8" s="43"/>
     </row>
-    <row r="9" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="16"/>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
@@ -36549,7 +36414,7 @@
       <c r="CC9" s="45"/>
       <c r="CD9" s="46"/>
     </row>
-    <row r="10" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="19" t="s">
         <v>104</v>
       </c>
@@ -36560,7 +36425,7 @@
       <c r="F10" s="20"/>
       <c r="G10" s="21"/>
     </row>
-    <row r="11" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="16"/>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
@@ -36645,7 +36510,7 @@
       <c r="CC11" s="98"/>
       <c r="CD11" s="99"/>
     </row>
-    <row r="12" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="19" t="s">
         <v>105</v>
       </c>
@@ -36730,7 +36595,7 @@
       <c r="CC12" s="101"/>
       <c r="CD12" s="102"/>
     </row>
-    <row r="13" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="16"/>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
@@ -36813,7 +36678,7 @@
       <c r="CC13" s="104"/>
       <c r="CD13" s="105"/>
     </row>
-    <row r="14" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="19" t="s">
         <v>106</v>
       </c>
@@ -36902,7 +36767,7 @@
       <c r="CC14" s="113"/>
       <c r="CD14" s="114"/>
     </row>
-    <row r="15" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="16"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
@@ -36985,7 +36850,7 @@
       <c r="CC15" s="116"/>
       <c r="CD15" s="117"/>
     </row>
-    <row r="16" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="56"/>
       <c r="B16" s="57"/>
       <c r="C16" s="57"/>
@@ -37074,7 +36939,7 @@
       <c r="CC16" s="119"/>
       <c r="CD16" s="120"/>
     </row>
-    <row r="17" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="59"/>
       <c r="B17" s="60"/>
       <c r="C17" s="60"/>
@@ -37161,7 +37026,7 @@
       <c r="CC17" s="122"/>
       <c r="CD17" s="123"/>
     </row>
-    <row r="18" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="56"/>
       <c r="B18" s="57"/>
       <c r="C18" s="57"/>
@@ -37246,7 +37111,7 @@
       <c r="CC18" s="125"/>
       <c r="CD18" s="126"/>
     </row>
-    <row r="19" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="59"/>
       <c r="B19" s="60"/>
       <c r="C19" s="60"/>
@@ -37333,7 +37198,7 @@
       <c r="CC19" s="128"/>
       <c r="CD19" s="129"/>
     </row>
-    <row r="20" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="56"/>
       <c r="B20" s="57"/>
       <c r="C20" s="57"/>
@@ -37418,7 +37283,7 @@
       <c r="CC20" s="131"/>
       <c r="CD20" s="132"/>
     </row>
-    <row r="21" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="59"/>
       <c r="B21" s="60"/>
       <c r="C21" s="60"/>
@@ -37503,7 +37368,7 @@
       <c r="CC21" s="79"/>
       <c r="CD21" s="80"/>
     </row>
-    <row r="22" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="56"/>
       <c r="B22" s="57"/>
       <c r="C22" s="57"/>
@@ -37586,7 +37451,7 @@
       <c r="CC22" s="82"/>
       <c r="CD22" s="83"/>
     </row>
-    <row r="23" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="59"/>
       <c r="B23" s="60"/>
       <c r="C23" s="60"/>
@@ -37669,7 +37534,7 @@
       <c r="CC23" s="82"/>
       <c r="CD23" s="83"/>
     </row>
-    <row r="24" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="56"/>
       <c r="B24" s="57"/>
       <c r="C24" s="57"/>
@@ -37752,7 +37617,7 @@
       <c r="CC24" s="82"/>
       <c r="CD24" s="83"/>
     </row>
-    <row r="25" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="59"/>
       <c r="B25" s="60"/>
       <c r="C25" s="60"/>
@@ -37835,7 +37700,7 @@
       <c r="CC25" s="82"/>
       <c r="CD25" s="83"/>
     </row>
-    <row r="26" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="56"/>
       <c r="B26" s="57"/>
       <c r="C26" s="57"/>
@@ -37922,7 +37787,7 @@
       <c r="CC26" s="82"/>
       <c r="CD26" s="83"/>
     </row>
-    <row r="27" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="59"/>
       <c r="B27" s="60"/>
       <c r="C27" s="60"/>
@@ -38005,7 +37870,7 @@
       <c r="CC27" s="82"/>
       <c r="CD27" s="83"/>
     </row>
-    <row r="28" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="56"/>
       <c r="B28" s="57"/>
       <c r="C28" s="57"/>
@@ -38088,7 +37953,7 @@
       <c r="CC28" s="82"/>
       <c r="CD28" s="83"/>
     </row>
-    <row r="29" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="59"/>
       <c r="B29" s="60"/>
       <c r="C29" s="60"/>
@@ -38171,7 +38036,7 @@
       <c r="CC29" s="82"/>
       <c r="CD29" s="83"/>
     </row>
-    <row r="30" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="56"/>
       <c r="B30" s="57"/>
       <c r="C30" s="57"/>
@@ -38258,7 +38123,7 @@
       <c r="CC30" s="82"/>
       <c r="CD30" s="83"/>
     </row>
-    <row r="31" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="59"/>
       <c r="B31" s="60"/>
       <c r="C31" s="60"/>
@@ -38343,7 +38208,7 @@
       <c r="CC31" s="82"/>
       <c r="CD31" s="83"/>
     </row>
-    <row r="32" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="56"/>
       <c r="B32" s="57"/>
       <c r="C32" s="57"/>
@@ -38428,7 +38293,7 @@
       <c r="CC32" s="82"/>
       <c r="CD32" s="83"/>
     </row>
-    <row r="33" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="59"/>
       <c r="B33" s="60"/>
       <c r="C33" s="60"/>
@@ -38511,7 +38376,7 @@
       <c r="CC33" s="82"/>
       <c r="CD33" s="83"/>
     </row>
-    <row r="34" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="56"/>
       <c r="B34" s="57"/>
       <c r="C34" s="57"/>
@@ -38594,7 +38459,7 @@
       <c r="CC34" s="82"/>
       <c r="CD34" s="83"/>
     </row>
-    <row r="35" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A35" s="59"/>
       <c r="B35" s="60"/>
       <c r="C35" s="60"/>
@@ -38677,7 +38542,7 @@
       <c r="CC35" s="82"/>
       <c r="CD35" s="83"/>
     </row>
-    <row r="36" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="56"/>
       <c r="B36" s="57"/>
       <c r="C36" s="57"/>
@@ -38764,7 +38629,7 @@
       <c r="CC36" s="82"/>
       <c r="CD36" s="83"/>
     </row>
-    <row r="37" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="59"/>
       <c r="B37" s="60"/>
       <c r="C37" s="60"/>
@@ -38847,7 +38712,7 @@
       <c r="CC37" s="82"/>
       <c r="CD37" s="83"/>
     </row>
-    <row r="38" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="56"/>
       <c r="B38" s="57"/>
       <c r="C38" s="57"/>
@@ -38930,7 +38795,7 @@
       <c r="CC38" s="82"/>
       <c r="CD38" s="83"/>
     </row>
-    <row r="39" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A39" s="59"/>
       <c r="B39" s="60"/>
       <c r="C39" s="60"/>
@@ -39013,7 +38878,7 @@
       <c r="CC39" s="82"/>
       <c r="CD39" s="83"/>
     </row>
-    <row r="40" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="56"/>
       <c r="B40" s="57"/>
       <c r="C40" s="57"/>
@@ -39096,7 +38961,7 @@
       <c r="CC40" s="82"/>
       <c r="CD40" s="83"/>
     </row>
-    <row r="41" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="59"/>
       <c r="B41" s="60"/>
       <c r="C41" s="60"/>
@@ -39179,7 +39044,7 @@
       <c r="CC41" s="82"/>
       <c r="CD41" s="83"/>
     </row>
-    <row r="42" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="56"/>
       <c r="B42" s="57"/>
       <c r="C42" s="57"/>
@@ -39262,7 +39127,7 @@
       <c r="CC42" s="82"/>
       <c r="CD42" s="83"/>
     </row>
-    <row r="43" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A43" s="59"/>
       <c r="B43" s="60"/>
       <c r="C43" s="60"/>
@@ -39345,7 +39210,7 @@
       <c r="CC43" s="85"/>
       <c r="CD43" s="86"/>
     </row>
-    <row r="44" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="56"/>
       <c r="B44" s="57"/>
       <c r="C44" s="57"/>
@@ -39354,7 +39219,7 @@
       <c r="F44" s="57"/>
       <c r="G44" s="58"/>
     </row>
-    <row r="45" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="59"/>
       <c r="B45" s="60"/>
       <c r="C45" s="60"/>
@@ -39363,7 +39228,7 @@
       <c r="F45" s="60"/>
       <c r="G45" s="61"/>
     </row>
-    <row r="46" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A46" s="56"/>
       <c r="B46" s="57"/>
       <c r="C46" s="57"/>
@@ -39372,7 +39237,7 @@
       <c r="F46" s="57"/>
       <c r="G46" s="58"/>
     </row>
-    <row r="47" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="59"/>
       <c r="B47" s="60"/>
       <c r="C47" s="60"/>
@@ -39457,7 +39322,7 @@
       <c r="CC47" s="98"/>
       <c r="CD47" s="99"/>
     </row>
-    <row r="48" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="56"/>
       <c r="B48" s="57"/>
       <c r="C48" s="57"/>
@@ -39540,7 +39405,7 @@
       <c r="CC48" s="101"/>
       <c r="CD48" s="102"/>
     </row>
-    <row r="49" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A49" s="59"/>
       <c r="B49" s="60"/>
       <c r="C49" s="60"/>
@@ -39623,7 +39488,7 @@
       <c r="CC49" s="104"/>
       <c r="CD49" s="105"/>
     </row>
-    <row r="50" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="56"/>
       <c r="B50" s="57"/>
       <c r="C50" s="57"/>
@@ -39710,7 +39575,7 @@
       <c r="CC50" s="113"/>
       <c r="CD50" s="114"/>
     </row>
-    <row r="51" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A51" s="59"/>
       <c r="B51" s="60"/>
       <c r="C51" s="60"/>
@@ -39793,7 +39658,7 @@
       <c r="CC51" s="116"/>
       <c r="CD51" s="117"/>
     </row>
-    <row r="52" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I52" s="87" t="s">
         <v>81</v>
       </c>
@@ -39875,7 +39740,7 @@
       <c r="CC52" s="119"/>
       <c r="CD52" s="120"/>
     </row>
-    <row r="53" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I53" s="78" t="s">
         <v>89</v>
       </c>
@@ -39955,7 +39820,7 @@
       <c r="CC53" s="122"/>
       <c r="CD53" s="123"/>
     </row>
-    <row r="54" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I54" s="81"/>
       <c r="J54" s="94"/>
       <c r="K54" s="94"/>
@@ -40033,7 +39898,7 @@
       <c r="CC54" s="125"/>
       <c r="CD54" s="126"/>
     </row>
-    <row r="55" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I55" s="81"/>
       <c r="J55" s="94"/>
       <c r="K55" s="94"/>
@@ -40113,7 +39978,7 @@
       <c r="CC55" s="128"/>
       <c r="CD55" s="129"/>
     </row>
-    <row r="56" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I56" s="81"/>
       <c r="J56" s="94"/>
       <c r="K56" s="94"/>
@@ -40191,7 +40056,7 @@
       <c r="CC56" s="131"/>
       <c r="CD56" s="132"/>
     </row>
-    <row r="57" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I57" s="81"/>
       <c r="J57" s="94"/>
       <c r="K57" s="94"/>
@@ -40269,7 +40134,7 @@
       <c r="CC57" s="79"/>
       <c r="CD57" s="80"/>
     </row>
-    <row r="58" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I58" s="81"/>
       <c r="J58" s="94"/>
       <c r="K58" s="94"/>
@@ -40347,7 +40212,7 @@
       <c r="CC58" s="82"/>
       <c r="CD58" s="83"/>
     </row>
-    <row r="59" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I59" s="81"/>
       <c r="J59" s="94"/>
       <c r="K59" s="94"/>
@@ -40423,7 +40288,7 @@
       <c r="CC59" s="82"/>
       <c r="CD59" s="83"/>
     </row>
-    <row r="60" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I60" s="81"/>
       <c r="J60" s="94"/>
       <c r="K60" s="94"/>
@@ -40499,7 +40364,7 @@
       <c r="CC60" s="82"/>
       <c r="CD60" s="83"/>
     </row>
-    <row r="61" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I61" s="81"/>
       <c r="J61" s="94"/>
       <c r="K61" s="94"/>
@@ -40575,7 +40440,7 @@
       <c r="CC61" s="82"/>
       <c r="CD61" s="83"/>
     </row>
-    <row r="62" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I62" s="81"/>
       <c r="J62" s="94"/>
       <c r="K62" s="94"/>
@@ -40651,7 +40516,7 @@
       <c r="CC62" s="82"/>
       <c r="CD62" s="83"/>
     </row>
-    <row r="63" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I63" s="78" t="s">
         <v>87</v>
       </c>
@@ -40731,7 +40596,7 @@
       <c r="CC63" s="82"/>
       <c r="CD63" s="83"/>
     </row>
-    <row r="64" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I64" s="81"/>
       <c r="J64" s="94"/>
       <c r="K64" s="94"/>
@@ -40807,7 +40672,7 @@
       <c r="CC64" s="82"/>
       <c r="CD64" s="83"/>
     </row>
-    <row r="65" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I65" s="81"/>
       <c r="J65" s="94"/>
       <c r="K65" s="94"/>
@@ -40883,7 +40748,7 @@
       <c r="CC65" s="82"/>
       <c r="CD65" s="83"/>
     </row>
-    <row r="66" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="66" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I66" s="84"/>
       <c r="J66" s="85"/>
       <c r="K66" s="85"/>
@@ -40959,7 +40824,7 @@
       <c r="CC66" s="82"/>
       <c r="CD66" s="83"/>
     </row>
-    <row r="67" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I67" s="78" t="s">
         <v>41</v>
       </c>
@@ -41039,7 +40904,7 @@
       <c r="CC67" s="82"/>
       <c r="CD67" s="83"/>
     </row>
-    <row r="68" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I68" s="81"/>
       <c r="J68" s="94"/>
       <c r="K68" s="94"/>
@@ -41117,7 +40982,7 @@
       <c r="CC68" s="82"/>
       <c r="CD68" s="83"/>
     </row>
-    <row r="69" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I69" s="81"/>
       <c r="J69" s="94"/>
       <c r="K69" s="94"/>
@@ -41195,7 +41060,7 @@
       <c r="CC69" s="82"/>
       <c r="CD69" s="83"/>
     </row>
-    <row r="70" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I70" s="81"/>
       <c r="J70" s="94"/>
       <c r="K70" s="94"/>
@@ -41271,7 +41136,7 @@
       <c r="CC70" s="82"/>
       <c r="CD70" s="83"/>
     </row>
-    <row r="71" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I71" s="81"/>
       <c r="J71" s="94"/>
       <c r="K71" s="94"/>
@@ -41347,7 +41212,7 @@
       <c r="CC71" s="82"/>
       <c r="CD71" s="83"/>
     </row>
-    <row r="72" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="72" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I72" s="84"/>
       <c r="J72" s="85"/>
       <c r="K72" s="85"/>
@@ -41423,7 +41288,7 @@
       <c r="CC72" s="82"/>
       <c r="CD72" s="83"/>
     </row>
-    <row r="73" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I73" s="78" t="s">
         <v>53</v>
       </c>
@@ -41503,7 +41368,7 @@
       <c r="CC73" s="82"/>
       <c r="CD73" s="83"/>
     </row>
-    <row r="74" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I74" s="81"/>
       <c r="J74" s="94"/>
       <c r="K74" s="94"/>
@@ -41579,7 +41444,7 @@
       <c r="CC74" s="82"/>
       <c r="CD74" s="83"/>
     </row>
-    <row r="75" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I75" s="81"/>
       <c r="J75" s="94"/>
       <c r="K75" s="94"/>
@@ -41655,7 +41520,7 @@
       <c r="CC75" s="82"/>
       <c r="CD75" s="83"/>
     </row>
-    <row r="76" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="76" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I76" s="84"/>
       <c r="J76" s="85"/>
       <c r="K76" s="85"/>
@@ -41731,7 +41596,7 @@
       <c r="CC76" s="82"/>
       <c r="CD76" s="83"/>
     </row>
-    <row r="77" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I77" s="81"/>
       <c r="J77" s="94"/>
       <c r="K77" s="94"/>
@@ -41807,7 +41672,7 @@
       <c r="CC77" s="82"/>
       <c r="CD77" s="83"/>
     </row>
-    <row r="78" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I78" s="81"/>
       <c r="J78" s="94"/>
       <c r="K78" s="94"/>
@@ -41883,7 +41748,7 @@
       <c r="CC78" s="82"/>
       <c r="CD78" s="83"/>
     </row>
-    <row r="79" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="79" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I79" s="84"/>
       <c r="J79" s="85"/>
       <c r="K79" s="85"/>
@@ -42090,27 +41955,27 @@
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.08203125" defaultRowHeight="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="2.08203125" style="1"/>
+    <col min="1" max="16384" width="2.09765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:82" s="8" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:82" s="8" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="8" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:82" s="8" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="3" spans="1:82" s="8" customFormat="1" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="4" spans="1:82" s="10" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:82" s="8" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:82" s="8" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="4" spans="1:82" s="10" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:82" s="12" customFormat="1" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:82" s="12" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="11"/>
     </row>
-    <row r="6" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="13" t="s">
         <v>7</v>
       </c>
@@ -42121,7 +41986,7 @@
       <c r="F6" s="14"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="16"/>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
@@ -42206,7 +42071,7 @@
       <c r="CC7" s="39"/>
       <c r="CD7" s="40"/>
     </row>
-    <row r="8" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="19" t="s">
         <v>103</v>
       </c>
@@ -42291,7 +42156,7 @@
       <c r="CC8" s="42"/>
       <c r="CD8" s="43"/>
     </row>
-    <row r="9" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="16"/>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
@@ -42374,7 +42239,7 @@
       <c r="CC9" s="45"/>
       <c r="CD9" s="46"/>
     </row>
-    <row r="10" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="19" t="s">
         <v>104</v>
       </c>
@@ -42385,7 +42250,7 @@
       <c r="F10" s="20"/>
       <c r="G10" s="21"/>
     </row>
-    <row r="11" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="16"/>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
@@ -42468,7 +42333,7 @@
       <c r="CC11" s="133"/>
       <c r="CD11" s="133"/>
     </row>
-    <row r="12" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="19" t="s">
         <v>105</v>
       </c>
@@ -42553,7 +42418,7 @@
       <c r="CC12" s="134"/>
       <c r="CD12" s="134"/>
     </row>
-    <row r="13" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="16"/>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
@@ -42636,7 +42501,7 @@
       <c r="CC13" s="134"/>
       <c r="CD13" s="134"/>
     </row>
-    <row r="14" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="19" t="s">
         <v>106</v>
       </c>
@@ -42721,7 +42586,7 @@
       <c r="CC14" s="134"/>
       <c r="CD14" s="134"/>
     </row>
-    <row r="15" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="16"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
@@ -42804,7 +42669,7 @@
       <c r="CC15" s="134"/>
       <c r="CD15" s="134"/>
     </row>
-    <row r="16" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="56"/>
       <c r="B16" s="57"/>
       <c r="C16" s="57"/>
@@ -42887,7 +42752,7 @@
       <c r="CC16" s="134"/>
       <c r="CD16" s="134"/>
     </row>
-    <row r="17" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="59"/>
       <c r="B17" s="60"/>
       <c r="C17" s="60"/>
@@ -42970,7 +42835,7 @@
       <c r="CC17" s="134"/>
       <c r="CD17" s="134"/>
     </row>
-    <row r="18" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="56"/>
       <c r="B18" s="57"/>
       <c r="C18" s="57"/>
@@ -43053,7 +42918,7 @@
       <c r="CC18" s="134"/>
       <c r="CD18" s="134"/>
     </row>
-    <row r="19" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="59"/>
       <c r="B19" s="60"/>
       <c r="C19" s="60"/>
@@ -43136,7 +43001,7 @@
       <c r="CC19" s="134"/>
       <c r="CD19" s="134"/>
     </row>
-    <row r="20" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="56"/>
       <c r="B20" s="57"/>
       <c r="C20" s="57"/>
@@ -43219,7 +43084,7 @@
       <c r="CC20" s="134"/>
       <c r="CD20" s="134"/>
     </row>
-    <row r="21" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="59"/>
       <c r="B21" s="60"/>
       <c r="C21" s="60"/>
@@ -43302,7 +43167,7 @@
       <c r="CC21" s="134"/>
       <c r="CD21" s="134"/>
     </row>
-    <row r="22" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="56"/>
       <c r="B22" s="57"/>
       <c r="C22" s="57"/>
@@ -43385,7 +43250,7 @@
       <c r="CC22" s="134"/>
       <c r="CD22" s="134"/>
     </row>
-    <row r="23" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="59"/>
       <c r="B23" s="60"/>
       <c r="C23" s="60"/>
@@ -43468,7 +43333,7 @@
       <c r="CC23" s="134"/>
       <c r="CD23" s="134"/>
     </row>
-    <row r="24" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="56"/>
       <c r="B24" s="57"/>
       <c r="C24" s="57"/>
@@ -43551,7 +43416,7 @@
       <c r="CC24" s="134"/>
       <c r="CD24" s="134"/>
     </row>
-    <row r="25" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="59"/>
       <c r="B25" s="60"/>
       <c r="C25" s="60"/>
@@ -43634,7 +43499,7 @@
       <c r="CC25" s="134"/>
       <c r="CD25" s="134"/>
     </row>
-    <row r="26" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="56"/>
       <c r="B26" s="57"/>
       <c r="C26" s="57"/>
@@ -43717,7 +43582,7 @@
       <c r="CC26" s="134"/>
       <c r="CD26" s="134"/>
     </row>
-    <row r="27" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="59"/>
       <c r="B27" s="60"/>
       <c r="C27" s="60"/>
@@ -43800,7 +43665,7 @@
       <c r="CC27" s="134"/>
       <c r="CD27" s="134"/>
     </row>
-    <row r="28" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="56"/>
       <c r="B28" s="57"/>
       <c r="C28" s="57"/>
@@ -43883,7 +43748,7 @@
       <c r="CC28" s="134"/>
       <c r="CD28" s="134"/>
     </row>
-    <row r="29" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="59"/>
       <c r="B29" s="60"/>
       <c r="C29" s="60"/>
@@ -43966,7 +43831,7 @@
       <c r="CC29" s="134"/>
       <c r="CD29" s="134"/>
     </row>
-    <row r="30" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="56"/>
       <c r="B30" s="57"/>
       <c r="C30" s="57"/>
@@ -44049,7 +43914,7 @@
       <c r="CC30" s="134"/>
       <c r="CD30" s="134"/>
     </row>
-    <row r="31" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="59"/>
       <c r="B31" s="60"/>
       <c r="C31" s="60"/>
@@ -44132,7 +43997,7 @@
       <c r="CC31" s="134"/>
       <c r="CD31" s="134"/>
     </row>
-    <row r="32" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="56"/>
       <c r="B32" s="57"/>
       <c r="C32" s="57"/>
@@ -44215,7 +44080,7 @@
       <c r="CC32" s="134"/>
       <c r="CD32" s="134"/>
     </row>
-    <row r="33" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="59"/>
       <c r="B33" s="60"/>
       <c r="C33" s="60"/>
@@ -44298,7 +44163,7 @@
       <c r="CC33" s="134"/>
       <c r="CD33" s="134"/>
     </row>
-    <row r="34" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="56"/>
       <c r="B34" s="57"/>
       <c r="C34" s="57"/>
@@ -44381,7 +44246,7 @@
       <c r="CC34" s="134"/>
       <c r="CD34" s="134"/>
     </row>
-    <row r="35" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="59"/>
       <c r="B35" s="60"/>
       <c r="C35" s="60"/>
@@ -44464,7 +44329,7 @@
       <c r="CC35" s="134"/>
       <c r="CD35" s="134"/>
     </row>
-    <row r="36" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="56"/>
       <c r="B36" s="57"/>
       <c r="C36" s="57"/>
@@ -44547,7 +44412,7 @@
       <c r="CC36" s="134"/>
       <c r="CD36" s="134"/>
     </row>
-    <row r="37" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="59"/>
       <c r="B37" s="60"/>
       <c r="C37" s="60"/>
@@ -44630,7 +44495,7 @@
       <c r="CC37" s="134"/>
       <c r="CD37" s="134"/>
     </row>
-    <row r="38" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="56"/>
       <c r="B38" s="57"/>
       <c r="C38" s="57"/>
@@ -44713,7 +44578,7 @@
       <c r="CC38" s="134"/>
       <c r="CD38" s="134"/>
     </row>
-    <row r="39" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="59"/>
       <c r="B39" s="60"/>
       <c r="C39" s="60"/>
@@ -44796,7 +44661,7 @@
       <c r="CC39" s="134"/>
       <c r="CD39" s="134"/>
     </row>
-    <row r="40" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="56"/>
       <c r="B40" s="57"/>
       <c r="C40" s="57"/>
@@ -44879,7 +44744,7 @@
       <c r="CC40" s="134"/>
       <c r="CD40" s="134"/>
     </row>
-    <row r="41" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A41" s="59"/>
       <c r="B41" s="60"/>
       <c r="C41" s="60"/>
@@ -44962,7 +44827,7 @@
       <c r="CC41" s="135"/>
       <c r="CD41" s="135"/>
     </row>
-    <row r="42" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="56"/>
       <c r="B42" s="57"/>
       <c r="C42" s="57"/>
@@ -44971,7 +44836,7 @@
       <c r="F42" s="57"/>
       <c r="G42" s="58"/>
     </row>
-    <row r="43" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="59"/>
       <c r="B43" s="60"/>
       <c r="C43" s="60"/>
@@ -44980,7 +44845,7 @@
       <c r="F43" s="60"/>
       <c r="G43" s="61"/>
     </row>
-    <row r="44" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A44" s="56"/>
       <c r="B44" s="57"/>
       <c r="C44" s="57"/>
@@ -44989,7 +44854,7 @@
       <c r="F44" s="57"/>
       <c r="G44" s="58"/>
     </row>
-    <row r="45" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="59"/>
       <c r="B45" s="60"/>
       <c r="C45" s="60"/>
@@ -45074,7 +44939,7 @@
       <c r="CC45" s="39"/>
       <c r="CD45" s="40"/>
     </row>
-    <row r="46" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="56"/>
       <c r="B46" s="57"/>
       <c r="C46" s="57"/>
@@ -45157,7 +45022,7 @@
       <c r="CC46" s="42"/>
       <c r="CD46" s="43"/>
     </row>
-    <row r="47" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A47" s="59"/>
       <c r="B47" s="60"/>
       <c r="C47" s="60"/>
@@ -45240,7 +45105,7 @@
       <c r="CC47" s="45"/>
       <c r="CD47" s="46"/>
     </row>
-    <row r="48" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A48" s="56"/>
       <c r="B48" s="57"/>
       <c r="C48" s="57"/>
@@ -45249,7 +45114,7 @@
       <c r="F48" s="57"/>
       <c r="G48" s="58"/>
     </row>
-    <row r="49" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="59"/>
       <c r="B49" s="60"/>
       <c r="C49" s="60"/>
@@ -45332,7 +45197,7 @@
       <c r="CC49" s="79"/>
       <c r="CD49" s="80"/>
     </row>
-    <row r="50" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="56"/>
       <c r="B50" s="57"/>
       <c r="C50" s="57"/>
@@ -45415,7 +45280,7 @@
       <c r="CC50" s="94"/>
       <c r="CD50" s="83"/>
     </row>
-    <row r="51" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="59"/>
       <c r="B51" s="60"/>
       <c r="C51" s="60"/>
@@ -45498,7 +45363,7 @@
       <c r="CC51" s="94"/>
       <c r="CD51" s="83"/>
     </row>
-    <row r="52" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I52" s="81"/>
       <c r="J52" s="94"/>
       <c r="K52" s="94"/>
@@ -45574,7 +45439,7 @@
       <c r="CC52" s="94"/>
       <c r="CD52" s="83"/>
     </row>
-    <row r="53" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I53" s="81"/>
       <c r="J53" s="94"/>
       <c r="K53" s="94"/>
@@ -45650,7 +45515,7 @@
       <c r="CC53" s="94"/>
       <c r="CD53" s="83"/>
     </row>
-    <row r="54" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I54" s="81"/>
       <c r="J54" s="94"/>
       <c r="K54" s="94"/>
@@ -45726,7 +45591,7 @@
       <c r="CC54" s="94"/>
       <c r="CD54" s="83"/>
     </row>
-    <row r="55" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I55" s="81"/>
       <c r="J55" s="94"/>
       <c r="K55" s="94"/>
@@ -45802,7 +45667,7 @@
       <c r="CC55" s="94"/>
       <c r="CD55" s="83"/>
     </row>
-    <row r="56" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I56" s="81"/>
       <c r="J56" s="94"/>
       <c r="K56" s="94"/>
@@ -45878,7 +45743,7 @@
       <c r="CC56" s="94"/>
       <c r="CD56" s="83"/>
     </row>
-    <row r="57" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I57" s="81"/>
       <c r="J57" s="94"/>
       <c r="K57" s="94"/>
@@ -45954,7 +45819,7 @@
       <c r="CC57" s="94"/>
       <c r="CD57" s="83"/>
     </row>
-    <row r="58" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I58" s="81"/>
       <c r="J58" s="94"/>
       <c r="K58" s="94"/>
@@ -46030,7 +45895,7 @@
       <c r="CC58" s="94"/>
       <c r="CD58" s="83"/>
     </row>
-    <row r="59" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I59" s="81"/>
       <c r="J59" s="94"/>
       <c r="K59" s="94"/>
@@ -46106,7 +45971,7 @@
       <c r="CC59" s="94"/>
       <c r="CD59" s="83"/>
     </row>
-    <row r="60" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I60" s="81"/>
       <c r="J60" s="94"/>
       <c r="K60" s="94"/>
@@ -46182,7 +46047,7 @@
       <c r="CC60" s="94"/>
       <c r="CD60" s="83"/>
     </row>
-    <row r="61" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I61" s="81"/>
       <c r="J61" s="94"/>
       <c r="K61" s="94"/>
@@ -46258,7 +46123,7 @@
       <c r="CC61" s="94"/>
       <c r="CD61" s="83"/>
     </row>
-    <row r="62" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I62" s="81"/>
       <c r="J62" s="94"/>
       <c r="K62" s="94"/>
@@ -46334,7 +46199,7 @@
       <c r="CC62" s="94"/>
       <c r="CD62" s="83"/>
     </row>
-    <row r="63" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I63" s="81"/>
       <c r="J63" s="94"/>
       <c r="K63" s="94"/>
@@ -46410,7 +46275,7 @@
       <c r="CC63" s="94"/>
       <c r="CD63" s="83"/>
     </row>
-    <row r="64" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I64" s="81"/>
       <c r="J64" s="94"/>
       <c r="K64" s="94"/>
@@ -46486,7 +46351,7 @@
       <c r="CC64" s="94"/>
       <c r="CD64" s="83"/>
     </row>
-    <row r="65" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I65" s="81"/>
       <c r="J65" s="94"/>
       <c r="K65" s="94"/>
@@ -46562,7 +46427,7 @@
       <c r="CC65" s="94"/>
       <c r="CD65" s="83"/>
     </row>
-    <row r="66" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I66" s="81"/>
       <c r="J66" s="94"/>
       <c r="K66" s="94"/>
@@ -46638,7 +46503,7 @@
       <c r="CC66" s="94"/>
       <c r="CD66" s="83"/>
     </row>
-    <row r="67" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I67" s="81"/>
       <c r="J67" s="94"/>
       <c r="K67" s="94"/>
@@ -46714,7 +46579,7 @@
       <c r="CC67" s="94"/>
       <c r="CD67" s="83"/>
     </row>
-    <row r="68" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I68" s="81"/>
       <c r="J68" s="94"/>
       <c r="K68" s="94"/>
@@ -46790,7 +46655,7 @@
       <c r="CC68" s="94"/>
       <c r="CD68" s="83"/>
     </row>
-    <row r="69" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I69" s="81"/>
       <c r="J69" s="94"/>
       <c r="K69" s="94"/>
@@ -46866,7 +46731,7 @@
       <c r="CC69" s="94"/>
       <c r="CD69" s="83"/>
     </row>
-    <row r="70" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I70" s="81"/>
       <c r="J70" s="94"/>
       <c r="K70" s="94"/>
@@ -46942,7 +46807,7 @@
       <c r="CC70" s="94"/>
       <c r="CD70" s="83"/>
     </row>
-    <row r="71" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I71" s="81"/>
       <c r="J71" s="94"/>
       <c r="K71" s="94"/>
@@ -47018,7 +46883,7 @@
       <c r="CC71" s="94"/>
       <c r="CD71" s="83"/>
     </row>
-    <row r="72" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I72" s="81"/>
       <c r="J72" s="94"/>
       <c r="K72" s="94"/>
@@ -47094,7 +46959,7 @@
       <c r="CC72" s="94"/>
       <c r="CD72" s="83"/>
     </row>
-    <row r="73" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I73" s="81"/>
       <c r="J73" s="94"/>
       <c r="K73" s="94"/>
@@ -47170,7 +47035,7 @@
       <c r="CC73" s="94"/>
       <c r="CD73" s="83"/>
     </row>
-    <row r="74" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I74" s="81"/>
       <c r="J74" s="94"/>
       <c r="K74" s="94"/>
@@ -47246,7 +47111,7 @@
       <c r="CC74" s="94"/>
       <c r="CD74" s="83"/>
     </row>
-    <row r="75" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I75" s="81"/>
       <c r="J75" s="94"/>
       <c r="K75" s="94"/>
@@ -47322,7 +47187,7 @@
       <c r="CC75" s="94"/>
       <c r="CD75" s="83"/>
     </row>
-    <row r="76" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I76" s="81"/>
       <c r="J76" s="94"/>
       <c r="K76" s="94"/>
@@ -47398,7 +47263,7 @@
       <c r="CC76" s="94"/>
       <c r="CD76" s="83"/>
     </row>
-    <row r="77" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I77" s="81"/>
       <c r="J77" s="94"/>
       <c r="K77" s="94"/>
@@ -47474,7 +47339,7 @@
       <c r="CC77" s="94"/>
       <c r="CD77" s="83"/>
     </row>
-    <row r="78" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I78" s="81"/>
       <c r="J78" s="94"/>
       <c r="K78" s="94"/>
@@ -47550,7 +47415,7 @@
       <c r="CC78" s="94"/>
       <c r="CD78" s="83"/>
     </row>
-    <row r="79" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I79" s="81"/>
       <c r="J79" s="94"/>
       <c r="K79" s="94"/>
@@ -47626,7 +47491,7 @@
       <c r="CC79" s="94"/>
       <c r="CD79" s="83"/>
     </row>
-    <row r="80" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I80" s="81"/>
       <c r="J80" s="94"/>
       <c r="K80" s="94"/>
@@ -47702,7 +47567,7 @@
       <c r="CC80" s="94"/>
       <c r="CD80" s="83"/>
     </row>
-    <row r="81" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I81" s="81"/>
       <c r="J81" s="94"/>
       <c r="K81" s="94"/>
@@ -47778,7 +47643,7 @@
       <c r="CC81" s="94"/>
       <c r="CD81" s="83"/>
     </row>
-    <row r="82" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I82" s="81"/>
       <c r="J82" s="94"/>
       <c r="K82" s="94"/>
@@ -47854,7 +47719,7 @@
       <c r="CC82" s="94"/>
       <c r="CD82" s="83"/>
     </row>
-    <row r="83" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I83" s="81"/>
       <c r="J83" s="94"/>
       <c r="K83" s="94"/>
@@ -47930,7 +47795,7 @@
       <c r="CC83" s="94"/>
       <c r="CD83" s="83"/>
     </row>
-    <row r="84" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I84" s="81"/>
       <c r="J84" s="94"/>
       <c r="K84" s="94"/>
@@ -48006,7 +47871,7 @@
       <c r="CC84" s="94"/>
       <c r="CD84" s="83"/>
     </row>
-    <row r="85" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I85" s="81"/>
       <c r="J85" s="94"/>
       <c r="K85" s="94"/>
@@ -48082,7 +47947,7 @@
       <c r="CC85" s="94"/>
       <c r="CD85" s="83"/>
     </row>
-    <row r="86" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I86" s="81"/>
       <c r="J86" s="94"/>
       <c r="K86" s="94"/>
@@ -48158,7 +48023,7 @@
       <c r="CC86" s="94"/>
       <c r="CD86" s="83"/>
     </row>
-    <row r="87" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I87" s="81"/>
       <c r="J87" s="94"/>
       <c r="K87" s="94"/>
@@ -48234,7 +48099,7 @@
       <c r="CC87" s="94"/>
       <c r="CD87" s="83"/>
     </row>
-    <row r="88" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I88" s="81"/>
       <c r="J88" s="94"/>
       <c r="K88" s="94"/>
@@ -48310,7 +48175,7 @@
       <c r="CC88" s="94"/>
       <c r="CD88" s="83"/>
     </row>
-    <row r="89" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I89" s="81"/>
       <c r="J89" s="94"/>
       <c r="K89" s="94"/>
@@ -48386,7 +48251,7 @@
       <c r="CC89" s="94"/>
       <c r="CD89" s="83"/>
     </row>
-    <row r="90" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I90" s="81"/>
       <c r="J90" s="94"/>
       <c r="K90" s="94"/>
@@ -48462,7 +48327,7 @@
       <c r="CC90" s="94"/>
       <c r="CD90" s="83"/>
     </row>
-    <row r="91" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I91" s="81"/>
       <c r="J91" s="94"/>
       <c r="K91" s="94"/>
@@ -48538,7 +48403,7 @@
       <c r="CC91" s="94"/>
       <c r="CD91" s="83"/>
     </row>
-    <row r="92" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I92" s="81"/>
       <c r="J92" s="94"/>
       <c r="K92" s="94"/>
@@ -48614,7 +48479,7 @@
       <c r="CC92" s="94"/>
       <c r="CD92" s="83"/>
     </row>
-    <row r="93" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I93" s="81"/>
       <c r="J93" s="94"/>
       <c r="K93" s="94"/>
@@ -48690,7 +48555,7 @@
       <c r="CC93" s="94"/>
       <c r="CD93" s="83"/>
     </row>
-    <row r="94" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I94" s="81"/>
       <c r="J94" s="94"/>
       <c r="K94" s="94"/>
@@ -48766,7 +48631,7 @@
       <c r="CC94" s="94"/>
       <c r="CD94" s="83"/>
     </row>
-    <row r="95" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I95" s="81"/>
       <c r="J95" s="94"/>
       <c r="K95" s="94"/>
@@ -48842,7 +48707,7 @@
       <c r="CC95" s="94"/>
       <c r="CD95" s="83"/>
     </row>
-    <row r="96" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I96" s="81"/>
       <c r="J96" s="94"/>
       <c r="K96" s="94"/>
@@ -48918,7 +48783,7 @@
       <c r="CC96" s="94"/>
       <c r="CD96" s="83"/>
     </row>
-    <row r="97" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I97" s="81"/>
       <c r="J97" s="94"/>
       <c r="K97" s="94"/>
@@ -48994,7 +48859,7 @@
       <c r="CC97" s="94"/>
       <c r="CD97" s="83"/>
     </row>
-    <row r="98" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I98" s="81"/>
       <c r="J98" s="94"/>
       <c r="K98" s="94"/>
@@ -49070,7 +48935,7 @@
       <c r="CC98" s="94"/>
       <c r="CD98" s="83"/>
     </row>
-    <row r="99" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I99" s="81"/>
       <c r="J99" s="94"/>
       <c r="K99" s="94"/>
@@ -49146,7 +49011,7 @@
       <c r="CC99" s="94"/>
       <c r="CD99" s="83"/>
     </row>
-    <row r="100" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="100" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I100" s="84"/>
       <c r="J100" s="85"/>
       <c r="K100" s="85"/>
@@ -49222,8 +49087,8 @@
       <c r="CC100" s="85"/>
       <c r="CD100" s="86"/>
     </row>
-    <row r="103" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="104" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="104" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I104" s="38" t="s">
         <v>94</v>
       </c>
@@ -49301,7 +49166,7 @@
       <c r="CC104" s="39"/>
       <c r="CD104" s="40"/>
     </row>
-    <row r="105" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I105" s="41"/>
       <c r="J105" s="42"/>
       <c r="K105" s="42"/>
@@ -49377,7 +49242,7 @@
       <c r="CC105" s="42"/>
       <c r="CD105" s="43"/>
     </row>
-    <row r="106" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="106" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I106" s="44"/>
       <c r="J106" s="45"/>
       <c r="K106" s="45"/>
@@ -49453,8 +49318,8 @@
       <c r="CC106" s="45"/>
       <c r="CD106" s="46"/>
     </row>
-    <row r="107" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="108" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="108" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I108" s="78"/>
       <c r="J108" s="79"/>
       <c r="K108" s="79"/>
@@ -49530,7 +49395,7 @@
       <c r="CC108" s="79"/>
       <c r="CD108" s="80"/>
     </row>
-    <row r="109" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I109" s="81"/>
       <c r="J109" s="82"/>
       <c r="K109" s="82"/>
@@ -49606,7 +49471,7 @@
       <c r="CC109" s="82"/>
       <c r="CD109" s="83"/>
     </row>
-    <row r="110" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I110" s="81"/>
       <c r="J110" s="82"/>
       <c r="K110" s="82"/>
@@ -49682,7 +49547,7 @@
       <c r="CC110" s="82"/>
       <c r="CD110" s="83"/>
     </row>
-    <row r="111" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I111" s="81"/>
       <c r="J111" s="82"/>
       <c r="K111" s="82"/>
@@ -49758,7 +49623,7 @@
       <c r="CC111" s="82"/>
       <c r="CD111" s="83"/>
     </row>
-    <row r="112" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I112" s="81"/>
       <c r="J112" s="82"/>
       <c r="K112" s="82"/>
@@ -49834,7 +49699,7 @@
       <c r="CC112" s="82"/>
       <c r="CD112" s="83"/>
     </row>
-    <row r="113" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I113" s="81"/>
       <c r="J113" s="82"/>
       <c r="K113" s="82"/>
@@ -49910,7 +49775,7 @@
       <c r="CC113" s="82"/>
       <c r="CD113" s="83"/>
     </row>
-    <row r="114" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I114" s="81"/>
       <c r="J114" s="82"/>
       <c r="K114" s="82"/>
@@ -49986,7 +49851,7 @@
       <c r="CC114" s="82"/>
       <c r="CD114" s="83"/>
     </row>
-    <row r="115" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I115" s="81"/>
       <c r="J115" s="82"/>
       <c r="K115" s="82"/>
@@ -50062,7 +49927,7 @@
       <c r="CC115" s="82"/>
       <c r="CD115" s="83"/>
     </row>
-    <row r="116" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I116" s="81"/>
       <c r="J116" s="82"/>
       <c r="K116" s="82"/>
@@ -50138,7 +50003,7 @@
       <c r="CC116" s="82"/>
       <c r="CD116" s="83"/>
     </row>
-    <row r="117" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I117" s="81"/>
       <c r="J117" s="82"/>
       <c r="K117" s="82"/>
@@ -50214,7 +50079,7 @@
       <c r="CC117" s="82"/>
       <c r="CD117" s="83"/>
     </row>
-    <row r="118" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I118" s="81"/>
       <c r="J118" s="82"/>
       <c r="K118" s="82"/>
@@ -50290,7 +50155,7 @@
       <c r="CC118" s="82"/>
       <c r="CD118" s="83"/>
     </row>
-    <row r="119" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I119" s="81"/>
       <c r="J119" s="82"/>
       <c r="K119" s="82"/>
@@ -50366,7 +50231,7 @@
       <c r="CC119" s="82"/>
       <c r="CD119" s="83"/>
     </row>
-    <row r="120" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I120" s="81"/>
       <c r="J120" s="82"/>
       <c r="K120" s="82"/>
@@ -50442,7 +50307,7 @@
       <c r="CC120" s="82"/>
       <c r="CD120" s="83"/>
     </row>
-    <row r="121" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I121" s="81"/>
       <c r="J121" s="82"/>
       <c r="K121" s="82"/>
@@ -50518,7 +50383,7 @@
       <c r="CC121" s="82"/>
       <c r="CD121" s="83"/>
     </row>
-    <row r="122" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I122" s="81"/>
       <c r="J122" s="82"/>
       <c r="K122" s="82"/>
@@ -50594,7 +50459,7 @@
       <c r="CC122" s="82"/>
       <c r="CD122" s="83"/>
     </row>
-    <row r="123" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I123" s="81"/>
       <c r="J123" s="82"/>
       <c r="K123" s="82"/>
@@ -50670,7 +50535,7 @@
       <c r="CC123" s="82"/>
       <c r="CD123" s="83"/>
     </row>
-    <row r="124" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I124" s="81"/>
       <c r="J124" s="82"/>
       <c r="K124" s="82"/>
@@ -50746,7 +50611,7 @@
       <c r="CC124" s="82"/>
       <c r="CD124" s="83"/>
     </row>
-    <row r="125" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I125" s="81"/>
       <c r="J125" s="82"/>
       <c r="K125" s="82"/>
@@ -50822,7 +50687,7 @@
       <c r="CC125" s="82"/>
       <c r="CD125" s="83"/>
     </row>
-    <row r="126" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I126" s="81"/>
       <c r="J126" s="82"/>
       <c r="K126" s="82"/>
@@ -50898,7 +50763,7 @@
       <c r="CC126" s="82"/>
       <c r="CD126" s="83"/>
     </row>
-    <row r="127" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I127" s="81"/>
       <c r="J127" s="82"/>
       <c r="K127" s="82"/>
@@ -50974,7 +50839,7 @@
       <c r="CC127" s="82"/>
       <c r="CD127" s="83"/>
     </row>
-    <row r="128" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I128" s="81"/>
       <c r="J128" s="82"/>
       <c r="K128" s="82"/>
@@ -51050,7 +50915,7 @@
       <c r="CC128" s="82"/>
       <c r="CD128" s="83"/>
     </row>
-    <row r="129" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I129" s="81"/>
       <c r="J129" s="82"/>
       <c r="K129" s="82"/>
@@ -51126,7 +50991,7 @@
       <c r="CC129" s="82"/>
       <c r="CD129" s="83"/>
     </row>
-    <row r="130" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I130" s="81"/>
       <c r="J130" s="82"/>
       <c r="K130" s="82"/>
@@ -51202,7 +51067,7 @@
       <c r="CC130" s="82"/>
       <c r="CD130" s="83"/>
     </row>
-    <row r="131" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I131" s="81"/>
       <c r="J131" s="82"/>
       <c r="K131" s="82"/>
@@ -51278,7 +51143,7 @@
       <c r="CC131" s="82"/>
       <c r="CD131" s="83"/>
     </row>
-    <row r="132" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I132" s="81"/>
       <c r="J132" s="82"/>
       <c r="K132" s="82"/>
@@ -51354,7 +51219,7 @@
       <c r="CC132" s="82"/>
       <c r="CD132" s="83"/>
     </row>
-    <row r="133" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I133" s="81"/>
       <c r="J133" s="82"/>
       <c r="K133" s="82"/>
@@ -51430,7 +51295,7 @@
       <c r="CC133" s="82"/>
       <c r="CD133" s="83"/>
     </row>
-    <row r="134" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I134" s="81"/>
       <c r="J134" s="82"/>
       <c r="K134" s="82"/>
@@ -51506,7 +51371,7 @@
       <c r="CC134" s="82"/>
       <c r="CD134" s="83"/>
     </row>
-    <row r="135" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="135" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I135" s="84"/>
       <c r="J135" s="85"/>
       <c r="K135" s="85"/>
@@ -51582,8 +51447,8 @@
       <c r="CC135" s="85"/>
       <c r="CD135" s="86"/>
     </row>
-    <row r="138" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="139" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="139" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I139" s="38" t="s">
         <v>95</v>
       </c>
@@ -51661,7 +51526,7 @@
       <c r="CC139" s="39"/>
       <c r="CD139" s="40"/>
     </row>
-    <row r="140" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I140" s="41"/>
       <c r="J140" s="42"/>
       <c r="K140" s="42"/>
@@ -51737,7 +51602,7 @@
       <c r="CC140" s="42"/>
       <c r="CD140" s="43"/>
     </row>
-    <row r="141" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="141" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I141" s="44"/>
       <c r="J141" s="45"/>
       <c r="K141" s="45"/>
@@ -51813,8 +51678,8 @@
       <c r="CC141" s="45"/>
       <c r="CD141" s="46"/>
     </row>
-    <row r="142" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="143" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="143" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I143" s="133"/>
       <c r="J143" s="133"/>
       <c r="K143" s="133"/>
@@ -51890,7 +51755,7 @@
       <c r="CC143" s="133"/>
       <c r="CD143" s="133"/>
     </row>
-    <row r="144" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I144" s="134"/>
       <c r="J144" s="134"/>
       <c r="K144" s="134"/>
@@ -51966,7 +51831,7 @@
       <c r="CC144" s="134"/>
       <c r="CD144" s="134"/>
     </row>
-    <row r="145" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I145" s="134"/>
       <c r="J145" s="134"/>
       <c r="K145" s="134"/>
@@ -52042,7 +51907,7 @@
       <c r="CC145" s="134"/>
       <c r="CD145" s="134"/>
     </row>
-    <row r="146" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I146" s="134"/>
       <c r="J146" s="134"/>
       <c r="K146" s="134"/>
@@ -52118,7 +51983,7 @@
       <c r="CC146" s="134"/>
       <c r="CD146" s="134"/>
     </row>
-    <row r="147" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I147" s="134"/>
       <c r="J147" s="134"/>
       <c r="K147" s="134"/>
@@ -52194,7 +52059,7 @@
       <c r="CC147" s="134"/>
       <c r="CD147" s="134"/>
     </row>
-    <row r="148" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I148" s="134"/>
       <c r="J148" s="134"/>
       <c r="K148" s="134"/>
@@ -52270,7 +52135,7 @@
       <c r="CC148" s="134"/>
       <c r="CD148" s="134"/>
     </row>
-    <row r="149" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I149" s="134"/>
       <c r="J149" s="134"/>
       <c r="K149" s="134"/>
@@ -52346,7 +52211,7 @@
       <c r="CC149" s="134"/>
       <c r="CD149" s="134"/>
     </row>
-    <row r="150" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I150" s="134"/>
       <c r="J150" s="134"/>
       <c r="K150" s="134"/>
@@ -52422,7 +52287,7 @@
       <c r="CC150" s="134"/>
       <c r="CD150" s="134"/>
     </row>
-    <row r="151" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I151" s="134"/>
       <c r="J151" s="134"/>
       <c r="K151" s="134"/>
@@ -52498,7 +52363,7 @@
       <c r="CC151" s="134"/>
       <c r="CD151" s="134"/>
     </row>
-    <row r="152" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I152" s="134"/>
       <c r="J152" s="134"/>
       <c r="K152" s="134"/>
@@ -52574,7 +52439,7 @@
       <c r="CC152" s="134"/>
       <c r="CD152" s="134"/>
     </row>
-    <row r="153" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I153" s="134"/>
       <c r="J153" s="134"/>
       <c r="K153" s="134"/>
@@ -52650,7 +52515,7 @@
       <c r="CC153" s="134"/>
       <c r="CD153" s="134"/>
     </row>
-    <row r="154" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I154" s="134"/>
       <c r="J154" s="134"/>
       <c r="K154" s="134"/>
@@ -52726,7 +52591,7 @@
       <c r="CC154" s="134"/>
       <c r="CD154" s="134"/>
     </row>
-    <row r="155" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I155" s="134"/>
       <c r="J155" s="134"/>
       <c r="K155" s="134"/>
@@ -52802,7 +52667,7 @@
       <c r="CC155" s="134"/>
       <c r="CD155" s="134"/>
     </row>
-    <row r="156" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I156" s="134"/>
       <c r="J156" s="134"/>
       <c r="K156" s="134"/>
@@ -52878,7 +52743,7 @@
       <c r="CC156" s="134"/>
       <c r="CD156" s="134"/>
     </row>
-    <row r="157" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I157" s="134"/>
       <c r="J157" s="134"/>
       <c r="K157" s="134"/>
@@ -52954,7 +52819,7 @@
       <c r="CC157" s="134"/>
       <c r="CD157" s="134"/>
     </row>
-    <row r="158" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I158" s="134"/>
       <c r="J158" s="134"/>
       <c r="K158" s="134"/>
@@ -53030,7 +52895,7 @@
       <c r="CC158" s="134"/>
       <c r="CD158" s="134"/>
     </row>
-    <row r="159" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I159" s="134"/>
       <c r="J159" s="134"/>
       <c r="K159" s="134"/>
@@ -53106,7 +52971,7 @@
       <c r="CC159" s="134"/>
       <c r="CD159" s="134"/>
     </row>
-    <row r="160" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I160" s="134"/>
       <c r="J160" s="134"/>
       <c r="K160" s="134"/>
@@ -53182,7 +53047,7 @@
       <c r="CC160" s="134"/>
       <c r="CD160" s="134"/>
     </row>
-    <row r="161" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I161" s="134"/>
       <c r="J161" s="134"/>
       <c r="K161" s="134"/>
@@ -53258,7 +53123,7 @@
       <c r="CC161" s="134"/>
       <c r="CD161" s="134"/>
     </row>
-    <row r="162" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I162" s="134"/>
       <c r="J162" s="134"/>
       <c r="K162" s="134"/>
@@ -53334,7 +53199,7 @@
       <c r="CC162" s="134"/>
       <c r="CD162" s="134"/>
     </row>
-    <row r="163" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I163" s="134"/>
       <c r="J163" s="134"/>
       <c r="K163" s="134"/>
@@ -53410,7 +53275,7 @@
       <c r="CC163" s="134"/>
       <c r="CD163" s="134"/>
     </row>
-    <row r="164" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I164" s="134"/>
       <c r="J164" s="134"/>
       <c r="K164" s="134"/>
@@ -53486,7 +53351,7 @@
       <c r="CC164" s="134"/>
       <c r="CD164" s="134"/>
     </row>
-    <row r="165" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I165" s="134"/>
       <c r="J165" s="134"/>
       <c r="K165" s="134"/>
@@ -53562,7 +53427,7 @@
       <c r="CC165" s="134"/>
       <c r="CD165" s="134"/>
     </row>
-    <row r="166" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I166" s="134"/>
       <c r="J166" s="134"/>
       <c r="K166" s="134"/>
@@ -53638,7 +53503,7 @@
       <c r="CC166" s="134"/>
       <c r="CD166" s="134"/>
     </row>
-    <row r="167" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="167" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I167" s="135"/>
       <c r="J167" s="135"/>
       <c r="K167" s="135"/>
